--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  VERDURAS   M A Y O    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  VERDURAS   M A Y O    2023.xlsx
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="61">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -366,6 +366,27 @@
   <si>
     <t>BALANCE      ZAVALETA      V E R D U R A  S     M A Y O         2 0 2 3</t>
   </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORTILLAS </t>
+  </si>
+  <si>
+    <t>140.00   Sin Baucher</t>
+  </si>
+  <si>
+    <t>CORTE Original PERDIDO</t>
+  </si>
+  <si>
+    <t>19.00    Sin Baucher</t>
+  </si>
+  <si>
+    <t>239.00--+50.00  Sin Baucher</t>
+  </si>
+  <si>
+    <t>747.00--+--32.00  Sin Baucher</t>
+  </si>
 </sst>
 </file>
 
@@ -379,7 +400,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,8 +764,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,8 +844,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="68">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1651,12 +1714,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2044,135 +2172,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="4" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2213,6 +2212,168 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="4" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="12" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="46" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="46" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="31" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="48" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2222,10 +2383,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF9966FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FF9966FF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF99FF33"/>
     </mruColors>
@@ -3866,31 +4028,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="226"/>
-      <c r="C1" s="228" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="227"/>
+      <c r="B2" s="233"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="243" t="s">
+      <c r="F2" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
       <c r="K2" s="176" t="s">
         <v>29</v>
       </c>
@@ -3899,21 +4061,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="230" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="231"/>
+      <c r="B3" s="236" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="237"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="232" t="s">
+      <c r="H3" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="232"/>
+      <c r="I3" s="238"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="235" t="s">
+      <c r="R3" s="223" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3926,14 +4088,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="237" t="s">
+      <c r="E4" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="H4" s="239" t="s">
+      <c r="F4" s="226"/>
+      <c r="H4" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="240"/>
+      <c r="I4" s="228"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -3943,11 +4105,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="241" t="s">
+      <c r="P4" s="229" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="236"/>
+      <c r="Q4" s="230"/>
+      <c r="R4" s="224"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -5777,11 +5939,11 @@
       <c r="J45" s="72"/>
       <c r="K45" s="99"/>
       <c r="L45" s="74"/>
-      <c r="M45" s="233">
+      <c r="M45" s="239">
         <f>SUM(M5:M39)</f>
         <v>64841</v>
       </c>
-      <c r="N45" s="212">
+      <c r="N45" s="248">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -5813,8 +5975,8 @@
       <c r="J46" s="72"/>
       <c r="K46" s="104"/>
       <c r="L46" s="74"/>
-      <c r="M46" s="234"/>
-      <c r="N46" s="213"/>
+      <c r="M46" s="240"/>
+      <c r="N46" s="249"/>
       <c r="P46" s="96"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -5906,29 +6068,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="214" t="s">
+      <c r="H51" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="215"/>
+      <c r="I51" s="251"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="216">
+      <c r="K51" s="252">
         <f>I49+L49</f>
         <v>5219.28</v>
       </c>
-      <c r="L51" s="217"/>
-      <c r="M51" s="218">
+      <c r="L51" s="253"/>
+      <c r="M51" s="254">
         <f>N45+M45</f>
         <v>64841</v>
       </c>
-      <c r="N51" s="219"/>
+      <c r="N51" s="255"/>
       <c r="P51" s="96"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="225" t="s">
+      <c r="D52" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="225"/>
+      <c r="E52" s="261"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>46856.369999999995</v>
@@ -5939,20 +6101,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="220"/>
-      <c r="E53" s="220"/>
+      <c r="D53" s="256"/>
+      <c r="E53" s="256"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="221" t="s">
+      <c r="I53" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="222"/>
-      <c r="K53" s="223">
+      <c r="J53" s="258"/>
+      <c r="K53" s="259">
         <f>F55+F56+F57</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L53" s="224"/>
+      <c r="L53" s="260"/>
       <c r="P53" s="96"/>
       <c r="Q53" s="9"/>
     </row>
@@ -5983,11 +6145,11 @@
         <v>15</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="205">
+      <c r="K55" s="241">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L55" s="206"/>
+      <c r="L55" s="242"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -6000,22 +6162,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="207" t="s">
+      <c r="D57" s="243" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="208"/>
+      <c r="E57" s="244"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="209" t="s">
+      <c r="I57" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="210"/>
-      <c r="K57" s="211">
+      <c r="J57" s="246"/>
+      <c r="K57" s="247">
         <f>K53+K55</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L57" s="211"/>
+      <c r="L57" s="247"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -6140,16 +6302,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
@@ -6162,6 +6314,16 @@
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6207,31 +6369,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="226"/>
-      <c r="C1" s="228" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="227"/>
+      <c r="B2" s="233"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="243" t="s">
+      <c r="F2" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -6242,21 +6404,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="230" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="231"/>
+      <c r="B3" s="236" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="237"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="232" t="s">
+      <c r="H3" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="232"/>
+      <c r="I3" s="238"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="235" t="s">
+      <c r="R3" s="223" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6269,14 +6431,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="237" t="s">
+      <c r="E4" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="H4" s="239" t="s">
+      <c r="F4" s="226"/>
+      <c r="H4" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="240"/>
+      <c r="I4" s="228"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -6286,11 +6448,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="241" t="s">
+      <c r="P4" s="229" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="236"/>
+      <c r="Q4" s="230"/>
+      <c r="R4" s="224"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -8829,11 +8991,11 @@
       <c r="J63" s="72"/>
       <c r="K63" s="99"/>
       <c r="L63" s="74"/>
-      <c r="M63" s="233">
+      <c r="M63" s="239">
         <f>SUM(M5:M48)</f>
         <v>88632</v>
       </c>
-      <c r="N63" s="212">
+      <c r="N63" s="248">
         <f>SUM(N5:N48)</f>
         <v>46604</v>
       </c>
@@ -8865,8 +9027,8 @@
       <c r="J64" s="72"/>
       <c r="K64" s="104"/>
       <c r="L64" s="74"/>
-      <c r="M64" s="234"/>
-      <c r="N64" s="213"/>
+      <c r="M64" s="240"/>
+      <c r="N64" s="249"/>
       <c r="P64" s="96"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="13">
@@ -8958,29 +9120,29 @@
       <c r="A69" s="133"/>
       <c r="B69" s="134"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="214" t="s">
+      <c r="H69" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="215"/>
+      <c r="I69" s="251"/>
       <c r="J69" s="135"/>
-      <c r="K69" s="216">
+      <c r="K69" s="252">
         <f>I67+L67</f>
         <v>6435</v>
       </c>
-      <c r="L69" s="217"/>
-      <c r="M69" s="218">
+      <c r="L69" s="253"/>
+      <c r="M69" s="254">
         <f>N63+M63</f>
         <v>135236</v>
       </c>
-      <c r="N69" s="219"/>
+      <c r="N69" s="255"/>
       <c r="P69" s="96"/>
       <c r="Q69" s="9"/>
     </row>
     <row r="70" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D70" s="225" t="s">
+      <c r="D70" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="225"/>
+      <c r="E70" s="261"/>
       <c r="F70" s="136">
         <f>F67-K69-C67</f>
         <v>65323.966999999975</v>
@@ -8991,20 +9153,20 @@
       <c r="Q70" s="9"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="220"/>
-      <c r="E71" s="220"/>
+      <c r="D71" s="256"/>
+      <c r="E71" s="256"/>
       <c r="F71" s="131">
         <v>0</v>
       </c>
-      <c r="I71" s="221" t="s">
+      <c r="I71" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="222"/>
-      <c r="K71" s="223">
+      <c r="J71" s="258"/>
+      <c r="K71" s="259">
         <f>F73+F74+F75</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L71" s="224"/>
+      <c r="L71" s="260"/>
       <c r="P71" s="96"/>
       <c r="Q71" s="9"/>
     </row>
@@ -9035,11 +9197,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="147"/>
-      <c r="K73" s="205">
+      <c r="K73" s="241">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L73" s="206"/>
+      <c r="L73" s="242"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="148" t="s">
@@ -9052,22 +9214,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="150"/>
-      <c r="D75" s="207" t="s">
+      <c r="D75" s="243" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="208"/>
+      <c r="E75" s="244"/>
       <c r="F75" s="151">
         <v>0</v>
       </c>
-      <c r="I75" s="209" t="s">
+      <c r="I75" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="210"/>
-      <c r="K75" s="211">
+      <c r="J75" s="246"/>
+      <c r="K75" s="247">
         <f>K71+K73</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L75" s="211"/>
+      <c r="L75" s="247"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="152"/>
@@ -9192,18 +9354,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9214,6 +9364,18 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="M69:N69"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.33" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9226,16 +9388,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="132" customWidth="1"/>
     <col min="3" max="3" width="16" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="260" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="217" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
     <col min="7" max="7" width="2.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="5" customWidth="1"/>
@@ -9248,36 +9410,36 @@
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
     <col min="17" max="17" width="18.140625" customWidth="1"/>
     <col min="18" max="18" width="23.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="27" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="3"/>
+    <col min="19" max="19" width="28.85546875" style="275" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="226"/>
-      <c r="C1" s="228" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="227"/>
+      <c r="B2" s="233"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="243" t="s">
+      <c r="F2" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -9288,21 +9450,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="230" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="231"/>
+      <c r="B3" s="236" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="237"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="232" t="s">
+      <c r="H3" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="232"/>
+      <c r="I3" s="238"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="235" t="s">
+      <c r="R3" s="223" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9314,15 +9476,15 @@
       <c r="C4" s="16">
         <v>0</v>
       </c>
-      <c r="D4" s="261"/>
-      <c r="E4" s="237" t="s">
+      <c r="D4" s="218"/>
+      <c r="E4" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="H4" s="239" t="s">
+      <c r="F4" s="226"/>
+      <c r="H4" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="240"/>
+      <c r="I4" s="228"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -9332,11 +9494,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="241" t="s">
+      <c r="P4" s="229" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="236"/>
+      <c r="Q4" s="230"/>
+      <c r="R4" s="224"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9357,7 +9519,7 @@
       <c r="F5" s="25">
         <v>10293</v>
       </c>
-      <c r="G5" s="248"/>
+      <c r="G5" s="205"/>
       <c r="H5" s="27">
         <v>45047</v>
       </c>
@@ -9365,59 +9527,72 @@
         <v>60</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="249"/>
+      <c r="K5" s="206"/>
       <c r="L5" s="9"/>
       <c r="M5" s="30">
-        <v>0</v>
+        <v>1743</v>
       </c>
       <c r="N5" s="31">
-        <v>0</v>
-      </c>
-      <c r="O5" s="32"/>
+        <v>3759</v>
+      </c>
+      <c r="O5" s="266"/>
       <c r="P5" s="33">
         <f>N5+M5+L5+I5+C5</f>
-        <v>4791</v>
+        <v>10293</v>
       </c>
       <c r="Q5" s="34">
         <f t="shared" ref="Q5:Q62" si="0">P5-F5</f>
-        <v>-5502</v>
+        <v>0</v>
       </c>
       <c r="R5" s="48">
         <v>0</v>
       </c>
-      <c r="S5" s="35"/>
+      <c r="S5" s="279" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="272" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="21">
         <v>45048</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="22">
+        <v>6593</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E6" s="24">
         <v>45048</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="248"/>
+      <c r="F6" s="25">
+        <v>10849</v>
+      </c>
+      <c r="G6" s="205"/>
       <c r="H6" s="27">
         <v>45048</v>
       </c>
-      <c r="I6" s="28"/>
+      <c r="I6" s="28">
+        <v>304</v>
+      </c>
       <c r="J6" s="37"/>
       <c r="K6" s="38"/>
       <c r="L6" s="39"/>
       <c r="M6" s="30">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="N6" s="31">
-        <v>0</v>
+        <v>3191</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="P6" s="33">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>10849</v>
       </c>
       <c r="Q6" s="34">
         <f t="shared" si="0"/>
@@ -9426,38 +9601,48 @@
       <c r="R6" s="48">
         <v>0</v>
       </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="9"/>
+      <c r="S6" s="277"/>
+      <c r="T6" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="21">
         <v>45049</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="22">
+        <v>3063</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E7" s="24">
         <v>45049</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="248"/>
+      <c r="F7" s="25">
+        <v>8116</v>
+      </c>
+      <c r="G7" s="205"/>
       <c r="H7" s="27">
         <v>45049</v>
       </c>
-      <c r="I7" s="28"/>
+      <c r="I7" s="28">
+        <v>168</v>
+      </c>
       <c r="J7" s="37"/>
       <c r="K7" s="38"/>
-      <c r="L7" s="250"/>
+      <c r="L7" s="207"/>
       <c r="M7" s="30">
-        <v>0</v>
+        <v>2235</v>
       </c>
       <c r="N7" s="31">
-        <v>0</v>
-      </c>
-      <c r="O7" s="32"/>
+        <v>2650</v>
+      </c>
+      <c r="O7" s="266"/>
       <c r="P7" s="33">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
+        <v>8116</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="0"/>
@@ -9466,37 +9651,50 @@
       <c r="R7" s="48">
         <v>0</v>
       </c>
-      <c r="S7" s="35"/>
+      <c r="S7" s="277" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="34" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="21">
         <v>45050</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="22">
+        <v>1087</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E8" s="24">
         <v>45050</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="248"/>
+      <c r="F8" s="25">
+        <v>4136</v>
+      </c>
+      <c r="G8" s="205"/>
       <c r="H8" s="27">
         <v>45050</v>
       </c>
-      <c r="I8" s="28"/>
+      <c r="I8" s="28">
+        <v>60</v>
+      </c>
       <c r="J8" s="42"/>
       <c r="K8" s="43"/>
       <c r="L8" s="39"/>
       <c r="M8" s="30">
-        <v>0</v>
+        <v>1316</v>
       </c>
       <c r="N8" s="31">
-        <v>0</v>
+        <v>1673</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="33">
         <f t="shared" ref="P8:P63" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <v>4136</v>
       </c>
       <c r="Q8" s="34">
         <f t="shared" si="0"/>
@@ -9505,37 +9703,48 @@
       <c r="R8" s="48">
         <v>0</v>
       </c>
-      <c r="S8" s="35"/>
+      <c r="S8" s="277"/>
+      <c r="T8" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="21">
         <v>45051</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="22">
+        <v>3739</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E9" s="24">
         <v>45051</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="248"/>
+      <c r="F9" s="25">
+        <v>6193</v>
+      </c>
+      <c r="G9" s="205"/>
       <c r="H9" s="27">
         <v>45051</v>
       </c>
-      <c r="I9" s="28"/>
+      <c r="I9" s="28">
+        <v>150</v>
+      </c>
       <c r="J9" s="37"/>
       <c r="K9" s="45"/>
       <c r="L9" s="39"/>
       <c r="M9" s="30">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="N9" s="31">
-        <v>0</v>
+        <v>1820</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6193</v>
       </c>
       <c r="Q9" s="34">
         <f t="shared" si="0"/>
@@ -9544,46 +9753,60 @@
       <c r="R9" s="48">
         <v>0</v>
       </c>
-      <c r="S9" s="175"/>
+      <c r="S9" s="277"/>
+      <c r="T9" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="21">
         <v>45052</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="22">
+        <v>6754</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E10" s="24">
         <v>45052</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="248"/>
+      <c r="F10" s="25">
+        <v>8045</v>
+      </c>
+      <c r="G10" s="205"/>
       <c r="H10" s="27">
         <v>45052</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="28">
+        <v>85</v>
+      </c>
       <c r="J10" s="37"/>
       <c r="K10" s="46"/>
       <c r="L10" s="47"/>
       <c r="M10" s="30">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="N10" s="31">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="O10" s="32"/>
       <c r="P10" s="33">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="34">
+        <v>8061</v>
+      </c>
+      <c r="Q10" s="267">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R10" s="48">
         <v>0</v>
       </c>
-      <c r="S10" s="35"/>
+      <c r="S10" s="277"/>
+      <c r="T10" s="34" t="s">
+        <v>46</v>
+      </c>
       <c r="U10" t="s">
         <v>7</v>
       </c>
@@ -9593,147 +9816,188 @@
       <c r="B11" s="21">
         <v>45053</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="50"/>
+      <c r="C11" s="22">
+        <v>208</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>55</v>
+      </c>
       <c r="E11" s="24">
         <v>45053</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="248"/>
+      <c r="F11" s="25">
+        <v>4971</v>
+      </c>
+      <c r="G11" s="205"/>
       <c r="H11" s="27">
         <v>45053</v>
       </c>
-      <c r="I11" s="28"/>
+      <c r="I11" s="28">
+        <v>0</v>
+      </c>
       <c r="J11" s="42"/>
       <c r="K11" s="178"/>
       <c r="L11" s="39"/>
       <c r="M11" s="30">
-        <v>0</v>
+        <v>3436</v>
       </c>
       <c r="N11" s="31">
-        <v>0</v>
-      </c>
-      <c r="O11" s="32"/>
+        <v>1365</v>
+      </c>
+      <c r="O11" s="268"/>
       <c r="P11" s="33">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="34">
+        <v>5009</v>
+      </c>
+      <c r="Q11" s="267">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R11" s="48">
         <v>0</v>
       </c>
-      <c r="S11" s="35"/>
+      <c r="S11" s="277"/>
+      <c r="T11" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="21">
         <v>45054</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="50"/>
+      <c r="C12" s="22">
+        <v>6214</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E12" s="24">
         <v>45054</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="248"/>
+      <c r="F12" s="25">
+        <v>9891</v>
+      </c>
+      <c r="G12" s="205"/>
       <c r="H12" s="27">
         <v>45054</v>
       </c>
-      <c r="I12" s="28"/>
+      <c r="I12" s="28">
+        <v>70</v>
+      </c>
       <c r="J12" s="37"/>
       <c r="K12" s="49"/>
       <c r="L12" s="39"/>
       <c r="M12" s="30">
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="N12" s="31">
-        <v>0</v>
+        <v>2927</v>
       </c>
       <c r="O12" s="32"/>
       <c r="P12" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="34">
+        <v>9977</v>
+      </c>
+      <c r="Q12" s="267">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="R12" s="48">
         <v>0</v>
       </c>
-      <c r="S12" s="35"/>
+      <c r="S12" s="277"/>
+      <c r="T12" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="21">
         <v>45055</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="22">
+        <v>3942</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E13" s="24">
         <v>45055</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="248"/>
+      <c r="F13" s="25">
+        <v>5672</v>
+      </c>
+      <c r="G13" s="205"/>
       <c r="H13" s="27">
         <v>45055</v>
       </c>
-      <c r="I13" s="28"/>
+      <c r="I13" s="28">
+        <v>60</v>
+      </c>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
       <c r="M13" s="30">
-        <v>0</v>
+        <v>697</v>
       </c>
       <c r="N13" s="31">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="O13" s="32"/>
       <c r="P13" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="34">
+        <v>5701</v>
+      </c>
+      <c r="Q13" s="267">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R13" s="48">
         <v>0</v>
       </c>
-      <c r="S13" s="35"/>
+      <c r="S13" s="277"/>
+      <c r="T13" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="21">
         <v>45056</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="22">
+        <v>2985</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E14" s="24">
         <v>45056</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="248"/>
+      <c r="F14" s="25">
+        <v>5645</v>
+      </c>
+      <c r="G14" s="205"/>
       <c r="H14" s="27">
         <v>45056</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="28">
+        <v>217</v>
+      </c>
       <c r="J14" s="37"/>
       <c r="K14" s="43"/>
       <c r="L14" s="39"/>
       <c r="M14" s="30">
-        <v>0</v>
+        <v>1849</v>
       </c>
       <c r="N14" s="31">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="O14" s="32"/>
       <c r="P14" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5645</v>
       </c>
       <c r="Q14" s="172">
         <f t="shared" si="0"/>
@@ -9742,37 +10006,48 @@
       <c r="R14" s="48">
         <v>0</v>
       </c>
-      <c r="S14" s="35"/>
+      <c r="S14" s="277"/>
+      <c r="T14" s="34" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="21">
         <v>45057</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="22">
+        <v>3331</v>
+      </c>
+      <c r="D15" s="270" t="s">
+        <v>0</v>
+      </c>
       <c r="E15" s="24">
         <v>45057</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="248"/>
+      <c r="F15" s="25">
+        <v>5689</v>
+      </c>
+      <c r="G15" s="205"/>
       <c r="H15" s="27">
         <v>45057</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="37"/>
+      <c r="I15" s="28">
+        <v>240</v>
+      </c>
+      <c r="J15" s="173"/>
       <c r="K15" s="43"/>
       <c r="L15" s="39"/>
       <c r="M15" s="30">
-        <v>0</v>
-      </c>
-      <c r="N15" s="31">
-        <v>0</v>
-      </c>
-      <c r="O15" s="32"/>
+        <v>787</v>
+      </c>
+      <c r="N15" s="274">
+        <v>1331</v>
+      </c>
+      <c r="O15" s="269"/>
       <c r="P15" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5689</v>
       </c>
       <c r="Q15" s="34">
         <f t="shared" si="0"/>
@@ -9781,24 +10056,37 @@
       <c r="R15" s="48">
         <v>0</v>
       </c>
-      <c r="S15" s="35"/>
+      <c r="S15" s="277" t="s">
+        <v>57</v>
+      </c>
+      <c r="T15" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21">
         <v>45058</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="22">
+        <v>5080</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E16" s="24">
         <v>45058</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="248"/>
+      <c r="F16" s="25">
+        <v>6530</v>
+      </c>
+      <c r="G16" s="205"/>
       <c r="H16" s="27">
         <v>45058</v>
       </c>
-      <c r="I16" s="28"/>
+      <c r="I16" s="28">
+        <v>140</v>
+      </c>
       <c r="J16" s="37"/>
       <c r="K16" s="43"/>
       <c r="L16" s="9"/>
@@ -9806,14 +10094,14 @@
         <v>0</v>
       </c>
       <c r="N16" s="31">
-        <v>0</v>
+        <v>1310</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6530</v>
       </c>
       <c r="Q16" s="172">
         <f t="shared" si="0"/>
@@ -9822,76 +10110,100 @@
       <c r="R16" s="48">
         <v>0</v>
       </c>
-      <c r="S16" s="175"/>
+      <c r="S16" s="277"/>
+      <c r="T16" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="21">
         <v>45059</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="22">
+        <v>4673</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E17" s="24">
         <v>45059</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="248"/>
+      <c r="F17" s="25">
+        <v>8206</v>
+      </c>
+      <c r="G17" s="205"/>
       <c r="H17" s="27">
         <v>45059</v>
       </c>
-      <c r="I17" s="28"/>
+      <c r="I17" s="28">
+        <v>60</v>
+      </c>
       <c r="J17" s="37"/>
       <c r="K17" s="51"/>
       <c r="L17" s="47"/>
       <c r="M17" s="30">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="N17" s="31">
-        <v>0</v>
-      </c>
-      <c r="O17" s="32"/>
+        <v>2771</v>
+      </c>
+      <c r="O17" s="266"/>
       <c r="P17" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="172">
+        <v>8207</v>
+      </c>
+      <c r="Q17" s="271">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="48">
         <v>0</v>
       </c>
-      <c r="S17" s="35"/>
+      <c r="S17" s="277" t="s">
+        <v>59</v>
+      </c>
+      <c r="T17" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="21">
         <v>45060</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="22">
+        <v>160</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>55</v>
+      </c>
       <c r="E18" s="24">
         <v>45060</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="248"/>
+      <c r="F18" s="25">
+        <v>6511</v>
+      </c>
+      <c r="G18" s="205"/>
       <c r="H18" s="27">
         <v>45060</v>
       </c>
-      <c r="I18" s="28"/>
+      <c r="I18" s="28">
+        <v>0</v>
+      </c>
       <c r="J18" s="37"/>
-      <c r="K18" s="251"/>
+      <c r="K18" s="208"/>
       <c r="L18" s="39"/>
       <c r="M18" s="30">
-        <v>0</v>
+        <v>3952</v>
       </c>
       <c r="N18" s="31">
-        <v>0</v>
-      </c>
-      <c r="O18" s="32"/>
+        <v>2399</v>
+      </c>
+      <c r="O18" s="266"/>
       <c r="P18" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6511</v>
       </c>
       <c r="Q18" s="34">
         <f t="shared" si="0"/>
@@ -9900,106 +10212,141 @@
       <c r="R18" s="48">
         <v>0</v>
       </c>
-      <c r="S18" s="35"/>
-    </row>
-    <row r="19" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S18" s="277" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="21">
         <v>45061</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="22">
+        <v>6670</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E19" s="24">
         <v>45061</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="248"/>
+      <c r="F19" s="25">
+        <v>10461</v>
+      </c>
+      <c r="G19" s="205"/>
       <c r="H19" s="27">
         <v>45061</v>
       </c>
-      <c r="I19" s="28"/>
+      <c r="I19" s="28">
+        <v>113</v>
+      </c>
       <c r="J19" s="37"/>
       <c r="K19" s="53"/>
       <c r="L19" s="54"/>
-      <c r="M19" s="30">
-        <v>0</v>
+      <c r="M19" s="281">
+        <v>2101</v>
       </c>
       <c r="N19" s="31">
-        <v>0</v>
+        <v>1567</v>
       </c>
       <c r="O19" s="32"/>
       <c r="P19" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="34">
+        <v>10451</v>
+      </c>
+      <c r="Q19" s="280">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="R19" s="48">
         <v>0</v>
       </c>
-      <c r="S19" s="35"/>
+      <c r="S19" s="277"/>
+      <c r="T19" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="21">
         <v>45062</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="22">
+        <v>5988</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E20" s="24">
         <v>45062</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="248"/>
+      <c r="F20" s="25">
+        <v>8612</v>
+      </c>
+      <c r="G20" s="205"/>
       <c r="H20" s="27">
         <v>45062</v>
       </c>
-      <c r="I20" s="28"/>
+      <c r="I20" s="28">
+        <v>80</v>
+      </c>
       <c r="J20" s="37"/>
       <c r="K20" s="55"/>
       <c r="L20" s="47"/>
       <c r="M20" s="30">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="N20" s="31">
-        <v>0</v>
+        <v>2331</v>
       </c>
       <c r="O20" s="32" t="s">
         <v>7</v>
       </c>
       <c r="P20" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="34">
+        <v>8611</v>
+      </c>
+      <c r="Q20" s="282">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R20" s="48">
         <v>0</v>
       </c>
-      <c r="S20" s="35"/>
+      <c r="S20" s="277"/>
+      <c r="T20" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="21">
         <v>45063</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="50"/>
+      <c r="C21" s="22">
+        <v>4241</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E21" s="24">
         <v>45063</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="248"/>
+      <c r="F21" s="25">
+        <v>5680</v>
+      </c>
+      <c r="G21" s="205"/>
       <c r="H21" s="27">
         <v>45063</v>
       </c>
-      <c r="I21" s="28"/>
+      <c r="I21" s="28">
+        <v>60</v>
+      </c>
       <c r="J21" s="37"/>
-      <c r="K21" s="252"/>
+      <c r="K21" s="209"/>
       <c r="L21" s="47"/>
       <c r="M21" s="30">
         <v>0</v>
@@ -10010,16 +10357,17 @@
       <c r="O21" s="32"/>
       <c r="P21" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4301</v>
       </c>
       <c r="Q21" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1379</v>
       </c>
       <c r="R21" s="48">
         <v>0</v>
       </c>
-      <c r="S21" s="35"/>
+      <c r="S21" s="277"/>
+      <c r="T21" s="34"/>
     </row>
     <row r="22" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
@@ -10032,7 +10380,7 @@
         <v>45064</v>
       </c>
       <c r="F22" s="25"/>
-      <c r="G22" s="248"/>
+      <c r="G22" s="205"/>
       <c r="H22" s="27">
         <v>45064</v>
       </c>
@@ -10058,7 +10406,8 @@
       <c r="R22" s="48">
         <v>0</v>
       </c>
-      <c r="S22" s="35"/>
+      <c r="S22" s="277"/>
+      <c r="T22" s="34"/>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
@@ -10071,7 +10420,7 @@
         <v>45065</v>
       </c>
       <c r="F23" s="25"/>
-      <c r="G23" s="248"/>
+      <c r="G23" s="205"/>
       <c r="H23" s="27">
         <v>45065</v>
       </c>
@@ -10097,7 +10446,8 @@
       <c r="R23" s="48">
         <v>0</v>
       </c>
-      <c r="S23" s="175"/>
+      <c r="S23" s="277"/>
+      <c r="T23" s="34"/>
     </row>
     <row r="24" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
@@ -10110,7 +10460,7 @@
         <v>45066</v>
       </c>
       <c r="F24" s="25"/>
-      <c r="G24" s="248"/>
+      <c r="G24" s="205"/>
       <c r="H24" s="27">
         <v>45066</v>
       </c>
@@ -10136,7 +10486,8 @@
       <c r="R24" s="48">
         <v>0</v>
       </c>
-      <c r="S24" s="35"/>
+      <c r="S24" s="277"/>
+      <c r="T24" s="34"/>
     </row>
     <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
@@ -10149,7 +10500,7 @@
         <v>45067</v>
       </c>
       <c r="F25" s="25"/>
-      <c r="G25" s="248"/>
+      <c r="G25" s="205"/>
       <c r="H25" s="27">
         <v>45067</v>
       </c>
@@ -10175,7 +10526,8 @@
       <c r="R25" s="48">
         <v>0</v>
       </c>
-      <c r="S25" s="35"/>
+      <c r="S25" s="277"/>
+      <c r="T25" s="34"/>
     </row>
     <row r="26" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
@@ -10188,7 +10540,7 @@
         <v>45068</v>
       </c>
       <c r="F26" s="25"/>
-      <c r="G26" s="248"/>
+      <c r="G26" s="205"/>
       <c r="H26" s="27">
         <v>45068</v>
       </c>
@@ -10214,7 +10566,8 @@
       <c r="R26" s="48">
         <v>0</v>
       </c>
-      <c r="S26" s="35"/>
+      <c r="S26" s="277"/>
+      <c r="T26" s="34"/>
     </row>
     <row r="27" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
@@ -10227,7 +10580,7 @@
         <v>45069</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="248"/>
+      <c r="G27" s="205"/>
       <c r="H27" s="27">
         <v>45069</v>
       </c>
@@ -10253,7 +10606,8 @@
       <c r="R27" s="48">
         <v>0</v>
       </c>
-      <c r="S27" s="35"/>
+      <c r="S27" s="277"/>
+      <c r="T27" s="34"/>
     </row>
     <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
@@ -10266,7 +10620,7 @@
         <v>45070</v>
       </c>
       <c r="F28" s="25"/>
-      <c r="G28" s="248"/>
+      <c r="G28" s="205"/>
       <c r="H28" s="27">
         <v>45070</v>
       </c>
@@ -10292,7 +10646,8 @@
       <c r="R28" s="48">
         <v>0</v>
       </c>
-      <c r="S28" s="35"/>
+      <c r="S28" s="277"/>
+      <c r="T28" s="34"/>
     </row>
     <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
@@ -10305,7 +10660,7 @@
         <v>45071</v>
       </c>
       <c r="F29" s="25"/>
-      <c r="G29" s="248"/>
+      <c r="G29" s="205"/>
       <c r="H29" s="27">
         <v>45071</v>
       </c>
@@ -10331,8 +10686,8 @@
       <c r="R29" s="48">
         <v>0</v>
       </c>
-      <c r="S29" s="174"/>
-      <c r="T29" s="9"/>
+      <c r="S29" s="277"/>
+      <c r="T29" s="34"/>
     </row>
     <row r="30" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
@@ -10345,7 +10700,7 @@
         <v>45072</v>
       </c>
       <c r="F30" s="25"/>
-      <c r="G30" s="248"/>
+      <c r="G30" s="205"/>
       <c r="H30" s="27">
         <v>45072</v>
       </c>
@@ -10371,7 +10726,8 @@
       <c r="R30" s="48">
         <v>0</v>
       </c>
-      <c r="S30" s="35"/>
+      <c r="S30" s="277"/>
+      <c r="T30" s="34"/>
     </row>
     <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
@@ -10384,13 +10740,13 @@
         <v>45073</v>
       </c>
       <c r="F31" s="25"/>
-      <c r="G31" s="248"/>
+      <c r="G31" s="205"/>
       <c r="H31" s="27">
         <v>45073</v>
       </c>
       <c r="I31" s="28"/>
       <c r="J31" s="68"/>
-      <c r="K31" s="253"/>
+      <c r="K31" s="210"/>
       <c r="L31" s="65"/>
       <c r="M31" s="30">
         <v>0</v>
@@ -10410,7 +10766,8 @@
       <c r="R31" s="48">
         <v>0</v>
       </c>
-      <c r="S31" s="35"/>
+      <c r="S31" s="277"/>
+      <c r="T31" s="34"/>
     </row>
     <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
@@ -10423,7 +10780,7 @@
         <v>45074</v>
       </c>
       <c r="F32" s="25"/>
-      <c r="G32" s="248"/>
+      <c r="G32" s="205"/>
       <c r="H32" s="27">
         <v>45074</v>
       </c>
@@ -10449,9 +10806,10 @@
       <c r="R32" s="48">
         <v>0</v>
       </c>
-      <c r="S32" s="35"/>
-    </row>
-    <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S32" s="277"/>
+      <c r="T32" s="34"/>
+    </row>
+    <row r="33" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="21">
         <v>45075</v>
@@ -10462,13 +10820,13 @@
         <v>45075</v>
       </c>
       <c r="F33" s="25"/>
-      <c r="G33" s="248"/>
+      <c r="G33" s="205"/>
       <c r="H33" s="27">
         <v>45075</v>
       </c>
       <c r="I33" s="28"/>
       <c r="J33" s="68"/>
-      <c r="K33" s="253"/>
+      <c r="K33" s="210"/>
       <c r="L33" s="102"/>
       <c r="M33" s="30">
         <v>0</v>
@@ -10488,9 +10846,10 @@
       <c r="R33" s="48">
         <v>0</v>
       </c>
-      <c r="S33" s="35"/>
-    </row>
-    <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S33" s="277"/>
+      <c r="T33" s="273"/>
+    </row>
+    <row r="34" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="21">
         <v>45076</v>
@@ -10501,13 +10860,13 @@
         <v>45076</v>
       </c>
       <c r="F34" s="25"/>
-      <c r="G34" s="248"/>
+      <c r="G34" s="205"/>
       <c r="H34" s="27">
         <v>45076</v>
       </c>
       <c r="I34" s="28"/>
       <c r="J34" s="68"/>
-      <c r="K34" s="254"/>
+      <c r="K34" s="211"/>
       <c r="L34" s="9"/>
       <c r="M34" s="30">
         <v>0</v>
@@ -10527,9 +10886,9 @@
       <c r="R34" s="48">
         <v>0</v>
       </c>
-      <c r="S34" s="35"/>
-    </row>
-    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S34" s="277"/>
+    </row>
+    <row r="35" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="21">
         <v>45077</v>
@@ -10540,13 +10899,13 @@
         <v>45077</v>
       </c>
       <c r="F35" s="25"/>
-      <c r="G35" s="248"/>
+      <c r="G35" s="205"/>
       <c r="H35" s="27">
         <v>45077</v>
       </c>
       <c r="I35" s="28"/>
       <c r="J35" s="68"/>
-      <c r="K35" s="253"/>
+      <c r="K35" s="210"/>
       <c r="L35" s="102"/>
       <c r="M35" s="30">
         <v>0</v>
@@ -10566,20 +10925,20 @@
       <c r="R35" s="48">
         <v>0</v>
       </c>
-      <c r="S35" s="35"/>
-    </row>
-    <row r="36" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S35" s="277"/>
+    </row>
+    <row r="36" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
       <c r="D36" s="83"/>
       <c r="E36" s="24"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="248"/>
+      <c r="G36" s="205"/>
       <c r="H36" s="27"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="255"/>
-      <c r="K36" s="256"/>
+      <c r="J36" s="212"/>
+      <c r="K36" s="213"/>
       <c r="L36" s="102"/>
       <c r="M36" s="30">
         <v>0</v>
@@ -10599,20 +10958,20 @@
       <c r="R36" s="48">
         <v>0</v>
       </c>
-      <c r="S36" s="35"/>
-    </row>
-    <row r="37" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S36" s="278"/>
+    </row>
+    <row r="37" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="204"/>
       <c r="C37" s="201"/>
       <c r="D37" s="78"/>
       <c r="E37" s="24"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="248"/>
+      <c r="G37" s="205"/>
       <c r="H37" s="27"/>
       <c r="I37" s="28"/>
       <c r="J37" s="68"/>
-      <c r="K37" s="257"/>
+      <c r="K37" s="214"/>
       <c r="L37" s="102"/>
       <c r="M37" s="30">
         <v>0</v>
@@ -10631,20 +10990,20 @@
       <c r="R37" s="48">
         <v>0</v>
       </c>
-      <c r="S37" s="35"/>
-    </row>
-    <row r="38" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S37" s="276"/>
+    </row>
+    <row r="38" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="204"/>
       <c r="C38" s="201"/>
       <c r="D38" s="79"/>
       <c r="E38" s="24"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="248"/>
+      <c r="G38" s="205"/>
       <c r="H38" s="27"/>
       <c r="I38" s="28"/>
       <c r="J38" s="68"/>
-      <c r="K38" s="253"/>
+      <c r="K38" s="210"/>
       <c r="L38" s="102"/>
       <c r="M38" s="30">
         <v>0</v>
@@ -10663,20 +11022,20 @@
       <c r="R38" s="48">
         <v>0</v>
       </c>
-      <c r="S38" s="35"/>
-    </row>
-    <row r="39" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S38" s="276"/>
+    </row>
+    <row r="39" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="204"/>
       <c r="C39" s="201"/>
       <c r="D39" s="79"/>
       <c r="E39" s="24"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="248"/>
+      <c r="G39" s="205"/>
       <c r="H39" s="27"/>
       <c r="I39" s="28"/>
       <c r="J39" s="68"/>
-      <c r="K39" s="253"/>
+      <c r="K39" s="210"/>
       <c r="L39" s="39"/>
       <c r="M39" s="30">
         <v>0</v>
@@ -10693,20 +11052,20 @@
         <v>0</v>
       </c>
       <c r="R39" s="48"/>
-      <c r="S39" s="35"/>
-    </row>
-    <row r="40" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S39" s="276"/>
+    </row>
+    <row r="40" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="204"/>
       <c r="C40" s="201"/>
       <c r="D40" s="79"/>
       <c r="E40" s="24"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="248"/>
+      <c r="G40" s="205"/>
       <c r="H40" s="27"/>
       <c r="I40" s="28"/>
       <c r="J40" s="68"/>
-      <c r="K40" s="253"/>
+      <c r="K40" s="210"/>
       <c r="L40" s="39"/>
       <c r="M40" s="30">
         <v>0</v>
@@ -10723,20 +11082,20 @@
         <v>0</v>
       </c>
       <c r="R40" s="48"/>
-      <c r="S40" s="35"/>
-    </row>
-    <row r="41" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S40" s="276"/>
+    </row>
+    <row r="41" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
       <c r="B41" s="204"/>
       <c r="C41" s="201"/>
       <c r="D41" s="79"/>
       <c r="E41" s="24"/>
       <c r="F41" s="25"/>
-      <c r="G41" s="248"/>
+      <c r="G41" s="205"/>
       <c r="H41" s="27"/>
       <c r="I41" s="28"/>
       <c r="J41" s="68"/>
-      <c r="K41" s="253"/>
+      <c r="K41" s="210"/>
       <c r="L41" s="39"/>
       <c r="M41" s="30">
         <v>0</v>
@@ -10753,20 +11112,20 @@
         <v>0</v>
       </c>
       <c r="R41" s="48"/>
-      <c r="S41" s="35"/>
-    </row>
-    <row r="42" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S41" s="276"/>
+    </row>
+    <row r="42" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
       <c r="B42" s="204"/>
       <c r="C42" s="201"/>
       <c r="D42" s="79"/>
       <c r="E42" s="24"/>
       <c r="F42" s="25"/>
-      <c r="G42" s="248"/>
+      <c r="G42" s="205"/>
       <c r="H42" s="27"/>
       <c r="I42" s="28"/>
       <c r="J42" s="68"/>
-      <c r="K42" s="253"/>
+      <c r="K42" s="210"/>
       <c r="L42" s="39"/>
       <c r="M42" s="30">
         <v>0</v>
@@ -10783,20 +11142,20 @@
         <v>0</v>
       </c>
       <c r="R42" s="48"/>
-      <c r="S42" s="35"/>
-    </row>
-    <row r="43" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S42" s="276"/>
+    </row>
+    <row r="43" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20"/>
       <c r="B43" s="204"/>
       <c r="C43" s="201"/>
       <c r="D43" s="79"/>
       <c r="E43" s="24"/>
       <c r="F43" s="25"/>
-      <c r="G43" s="248"/>
+      <c r="G43" s="205"/>
       <c r="H43" s="27"/>
       <c r="I43" s="28"/>
       <c r="J43" s="68"/>
-      <c r="K43" s="253"/>
+      <c r="K43" s="210"/>
       <c r="L43" s="39"/>
       <c r="M43" s="30">
         <v>0</v>
@@ -10813,20 +11172,20 @@
         <v>0</v>
       </c>
       <c r="R43" s="48"/>
-      <c r="S43" s="35"/>
-    </row>
-    <row r="44" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S43" s="276"/>
+    </row>
+    <row r="44" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20"/>
       <c r="B44" s="204"/>
       <c r="C44" s="201"/>
       <c r="D44" s="79"/>
       <c r="E44" s="24"/>
       <c r="F44" s="25"/>
-      <c r="G44" s="248"/>
+      <c r="G44" s="205"/>
       <c r="H44" s="27"/>
       <c r="I44" s="28"/>
       <c r="J44" s="68"/>
-      <c r="K44" s="253"/>
+      <c r="K44" s="210"/>
       <c r="L44" s="39"/>
       <c r="M44" s="30">
         <v>0</v>
@@ -10843,20 +11202,20 @@
         <v>0</v>
       </c>
       <c r="R44" s="48"/>
-      <c r="S44" s="35"/>
-    </row>
-    <row r="45" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S44" s="276"/>
+    </row>
+    <row r="45" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20"/>
       <c r="B45" s="204"/>
       <c r="C45" s="201"/>
       <c r="D45" s="79"/>
       <c r="E45" s="24"/>
       <c r="F45" s="25"/>
-      <c r="G45" s="248"/>
+      <c r="G45" s="205"/>
       <c r="H45" s="27"/>
       <c r="I45" s="28"/>
       <c r="J45" s="68"/>
-      <c r="K45" s="253"/>
+      <c r="K45" s="210"/>
       <c r="L45" s="39"/>
       <c r="M45" s="30">
         <v>0</v>
@@ -10873,20 +11232,20 @@
         <v>0</v>
       </c>
       <c r="R45" s="48"/>
-      <c r="S45" s="35"/>
-    </row>
-    <row r="46" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S45" s="276"/>
+    </row>
+    <row r="46" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20"/>
       <c r="B46" s="204"/>
       <c r="C46" s="201"/>
       <c r="D46" s="79"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
-      <c r="G46" s="248"/>
+      <c r="G46" s="205"/>
       <c r="H46" s="27"/>
       <c r="I46" s="28"/>
       <c r="J46" s="68"/>
-      <c r="K46" s="253"/>
+      <c r="K46" s="210"/>
       <c r="L46" s="39"/>
       <c r="M46" s="30">
         <v>0</v>
@@ -10903,20 +11262,20 @@
         <v>0</v>
       </c>
       <c r="R46" s="48"/>
-      <c r="S46" s="35"/>
-    </row>
-    <row r="47" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S46" s="276"/>
+    </row>
+    <row r="47" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="20"/>
       <c r="B47" s="204"/>
       <c r="C47" s="201"/>
       <c r="D47" s="79"/>
       <c r="E47" s="24"/>
       <c r="F47" s="25"/>
-      <c r="G47" s="248"/>
+      <c r="G47" s="205"/>
       <c r="H47" s="27"/>
       <c r="I47" s="28"/>
       <c r="J47" s="68"/>
-      <c r="K47" s="253"/>
+      <c r="K47" s="210"/>
       <c r="L47" s="39"/>
       <c r="M47" s="30">
         <v>0</v>
@@ -10933,20 +11292,20 @@
         <v>0</v>
       </c>
       <c r="R47" s="48"/>
-      <c r="S47" s="35"/>
-    </row>
-    <row r="48" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S47" s="276"/>
+    </row>
+    <row r="48" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20"/>
       <c r="B48" s="204"/>
       <c r="C48" s="201"/>
       <c r="D48" s="79"/>
       <c r="E48" s="24"/>
       <c r="F48" s="25"/>
-      <c r="G48" s="248"/>
+      <c r="G48" s="205"/>
       <c r="H48" s="27"/>
       <c r="I48" s="28"/>
       <c r="J48" s="68"/>
-      <c r="K48" s="253"/>
+      <c r="K48" s="210"/>
       <c r="L48" s="39"/>
       <c r="M48" s="30">
         <v>0</v>
@@ -10963,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="48"/>
-      <c r="S48" s="35"/>
+      <c r="S48" s="276"/>
     </row>
     <row r="49" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20"/>
@@ -10972,11 +11331,11 @@
       <c r="D49" s="79"/>
       <c r="E49" s="24"/>
       <c r="F49" s="25"/>
-      <c r="G49" s="248"/>
+      <c r="G49" s="205"/>
       <c r="H49" s="27"/>
       <c r="I49" s="28"/>
       <c r="J49" s="68"/>
-      <c r="K49" s="258"/>
+      <c r="K49" s="215"/>
       <c r="L49" s="39"/>
       <c r="M49" s="30">
         <v>0</v>
@@ -10995,7 +11354,7 @@
       <c r="R49" s="48">
         <v>0</v>
       </c>
-      <c r="S49" s="35"/>
+      <c r="S49" s="276"/>
     </row>
     <row r="50" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="20"/>
@@ -11004,11 +11363,11 @@
       <c r="D50" s="79"/>
       <c r="E50" s="24"/>
       <c r="F50" s="25"/>
-      <c r="G50" s="248"/>
+      <c r="G50" s="205"/>
       <c r="H50" s="27"/>
       <c r="I50" s="28"/>
       <c r="J50" s="68"/>
-      <c r="K50" s="259"/>
+      <c r="K50" s="216"/>
       <c r="L50" s="39"/>
       <c r="M50" s="30">
         <v>0</v>
@@ -11027,7 +11386,7 @@
       <c r="R50" s="48">
         <v>0</v>
       </c>
-      <c r="S50" s="35"/>
+      <c r="S50" s="276"/>
     </row>
     <row r="51" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="20"/>
@@ -11036,11 +11395,11 @@
       <c r="D51" s="79"/>
       <c r="E51" s="24"/>
       <c r="F51" s="25"/>
-      <c r="G51" s="248"/>
+      <c r="G51" s="205"/>
       <c r="H51" s="27"/>
       <c r="I51" s="28"/>
       <c r="J51" s="68"/>
-      <c r="K51" s="259"/>
+      <c r="K51" s="216"/>
       <c r="L51" s="39"/>
       <c r="M51" s="30">
         <v>0</v>
@@ -11059,7 +11418,7 @@
       <c r="R51" s="48">
         <v>0</v>
       </c>
-      <c r="S51" s="35"/>
+      <c r="S51" s="276"/>
     </row>
     <row r="52" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="20"/>
@@ -11068,11 +11427,11 @@
       <c r="D52" s="79"/>
       <c r="E52" s="24"/>
       <c r="F52" s="89"/>
-      <c r="G52" s="248"/>
+      <c r="G52" s="205"/>
       <c r="H52" s="27"/>
       <c r="I52" s="28"/>
       <c r="J52" s="68"/>
-      <c r="K52" s="259"/>
+      <c r="K52" s="216"/>
       <c r="L52" s="39"/>
       <c r="M52" s="30">
         <v>0</v>
@@ -11091,7 +11450,7 @@
       <c r="R52" s="203">
         <v>0</v>
       </c>
-      <c r="S52" s="35"/>
+      <c r="S52" s="276"/>
     </row>
     <row r="53" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20"/>
@@ -11100,11 +11459,11 @@
       <c r="D53" s="79"/>
       <c r="E53" s="24"/>
       <c r="F53" s="89"/>
-      <c r="G53" s="248"/>
+      <c r="G53" s="205"/>
       <c r="H53" s="27"/>
       <c r="I53" s="28"/>
       <c r="J53" s="68"/>
-      <c r="K53" s="259"/>
+      <c r="K53" s="216"/>
       <c r="L53" s="39"/>
       <c r="M53" s="30">
         <v>0</v>
@@ -11121,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="202"/>
-      <c r="S53" s="35"/>
+      <c r="S53" s="276"/>
     </row>
     <row r="54" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="20"/>
@@ -11130,11 +11489,11 @@
       <c r="D54" s="79"/>
       <c r="E54" s="24"/>
       <c r="F54" s="89"/>
-      <c r="G54" s="248"/>
+      <c r="G54" s="205"/>
       <c r="H54" s="27"/>
       <c r="I54" s="28"/>
       <c r="J54" s="68"/>
-      <c r="K54" s="259"/>
+      <c r="K54" s="216"/>
       <c r="L54" s="39"/>
       <c r="M54" s="30">
         <v>0</v>
@@ -11151,7 +11510,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="202"/>
-      <c r="S54" s="35"/>
+      <c r="S54" s="276"/>
     </row>
     <row r="55" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20"/>
@@ -11160,11 +11519,11 @@
       <c r="D55" s="79"/>
       <c r="E55" s="24"/>
       <c r="F55" s="89"/>
-      <c r="G55" s="248"/>
+      <c r="G55" s="205"/>
       <c r="H55" s="27"/>
       <c r="I55" s="28"/>
       <c r="J55" s="68"/>
-      <c r="K55" s="259"/>
+      <c r="K55" s="216"/>
       <c r="L55" s="39"/>
       <c r="M55" s="30">
         <v>0</v>
@@ -11181,7 +11540,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="202"/>
-      <c r="S55" s="35"/>
+      <c r="S55" s="276"/>
     </row>
     <row r="56" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="20"/>
@@ -11190,11 +11549,11 @@
       <c r="D56" s="79"/>
       <c r="E56" s="24"/>
       <c r="F56" s="89"/>
-      <c r="G56" s="248"/>
+      <c r="G56" s="205"/>
       <c r="H56" s="27"/>
       <c r="I56" s="28"/>
       <c r="J56" s="68"/>
-      <c r="K56" s="259"/>
+      <c r="K56" s="216"/>
       <c r="L56" s="39"/>
       <c r="M56" s="30">
         <v>0</v>
@@ -11211,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="R56" s="202"/>
-      <c r="S56" s="35"/>
+      <c r="S56" s="276"/>
     </row>
     <row r="57" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20"/>
@@ -11220,11 +11579,11 @@
       <c r="D57" s="79"/>
       <c r="E57" s="24"/>
       <c r="F57" s="89"/>
-      <c r="G57" s="248"/>
+      <c r="G57" s="205"/>
       <c r="H57" s="27"/>
       <c r="I57" s="28"/>
       <c r="J57" s="68"/>
-      <c r="K57" s="259"/>
+      <c r="K57" s="216"/>
       <c r="L57" s="39"/>
       <c r="M57" s="30">
         <v>0</v>
@@ -11241,7 +11600,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="202"/>
-      <c r="S57" s="35"/>
+      <c r="S57" s="276"/>
     </row>
     <row r="58" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="20"/>
@@ -11250,11 +11609,11 @@
       <c r="D58" s="79"/>
       <c r="E58" s="24"/>
       <c r="F58" s="89"/>
-      <c r="G58" s="248"/>
+      <c r="G58" s="205"/>
       <c r="H58" s="27"/>
       <c r="I58" s="28"/>
       <c r="J58" s="68"/>
-      <c r="K58" s="259"/>
+      <c r="K58" s="216"/>
       <c r="L58" s="39"/>
       <c r="M58" s="30">
         <v>0</v>
@@ -11271,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="202"/>
-      <c r="S58" s="35"/>
+      <c r="S58" s="276"/>
     </row>
     <row r="59" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="20"/>
@@ -11280,11 +11639,11 @@
       <c r="D59" s="79"/>
       <c r="E59" s="24"/>
       <c r="F59" s="89"/>
-      <c r="G59" s="248"/>
+      <c r="G59" s="205"/>
       <c r="H59" s="27"/>
       <c r="I59" s="28"/>
       <c r="J59" s="68"/>
-      <c r="K59" s="259"/>
+      <c r="K59" s="216"/>
       <c r="L59" s="39"/>
       <c r="M59" s="30">
         <v>0</v>
@@ -11301,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="202"/>
-      <c r="S59" s="35"/>
+      <c r="S59" s="276"/>
     </row>
     <row r="60" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="20"/>
@@ -11310,11 +11669,11 @@
       <c r="D60" s="79"/>
       <c r="E60" s="24"/>
       <c r="F60" s="89"/>
-      <c r="G60" s="248"/>
+      <c r="G60" s="205"/>
       <c r="H60" s="27"/>
       <c r="I60" s="28"/>
       <c r="J60" s="68"/>
-      <c r="K60" s="259"/>
+      <c r="K60" s="216"/>
       <c r="L60" s="39"/>
       <c r="M60" s="30">
         <v>0</v>
@@ -11331,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="202"/>
-      <c r="S60" s="35"/>
+      <c r="S60" s="276"/>
     </row>
     <row r="61" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="20"/>
@@ -11362,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="202"/>
-      <c r="S61" s="35"/>
+      <c r="S61" s="276"/>
     </row>
     <row r="62" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="20"/>
@@ -11397,7 +11756,7 @@
       <c r="R62" s="13">
         <v>0</v>
       </c>
-      <c r="S62" s="35"/>
+      <c r="S62" s="276"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="20"/>
@@ -11414,21 +11773,21 @@
       <c r="J63" s="72"/>
       <c r="K63" s="99"/>
       <c r="L63" s="74"/>
-      <c r="M63" s="233">
+      <c r="M63" s="239">
         <f>SUM(M5:M48)</f>
-        <v>0</v>
-      </c>
-      <c r="N63" s="212">
+        <v>21504</v>
+      </c>
+      <c r="N63" s="248">
         <f>SUM(N5:N48)</f>
-        <v>0</v>
+        <v>31450</v>
       </c>
       <c r="P63" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52954</v>
       </c>
       <c r="Q63" s="101">
         <f>SUM(Q5:Q48)</f>
-        <v>-5502</v>
+        <v>-1220</v>
       </c>
       <c r="R63" s="101">
         <f>SUM(R5:R48)</f>
@@ -11450,8 +11809,8 @@
       <c r="J64" s="72"/>
       <c r="K64" s="104"/>
       <c r="L64" s="74"/>
-      <c r="M64" s="234"/>
-      <c r="N64" s="213"/>
+      <c r="M64" s="240"/>
+      <c r="N64" s="249"/>
       <c r="P64" s="96"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="13">
@@ -11476,7 +11835,7 @@
       <c r="P65" s="96"/>
       <c r="Q65" s="9"/>
     </row>
-    <row r="66" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="105"/>
       <c r="C66" s="22">
@@ -11501,15 +11860,15 @@
       </c>
       <c r="C67" s="122">
         <f>SUM(C5:C66)</f>
-        <v>4731</v>
-      </c>
-      <c r="D67" s="262"/>
+        <v>69459</v>
+      </c>
+      <c r="D67" s="219"/>
       <c r="E67" s="124" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="125">
         <f>SUM(F5:F66)</f>
-        <v>10293</v>
+        <v>125500</v>
       </c>
       <c r="G67" s="123"/>
       <c r="H67" s="126" t="s">
@@ -11517,7 +11876,7 @@
       </c>
       <c r="I67" s="127">
         <f>SUM(I5:I66)</f>
-        <v>60</v>
+        <v>1867</v>
       </c>
       <c r="J67" s="128"/>
       <c r="K67" s="129" t="s">
@@ -11532,7 +11891,7 @@
       <c r="P67" s="96"/>
       <c r="Q67" s="9"/>
     </row>
-    <row r="68" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" s="4" t="s">
         <v>7</v>
       </c>
@@ -11543,32 +11902,32 @@
       <c r="A69" s="133"/>
       <c r="B69" s="134"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="214" t="s">
+      <c r="H69" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="215"/>
+      <c r="I69" s="251"/>
       <c r="J69" s="135"/>
-      <c r="K69" s="216">
+      <c r="K69" s="252">
         <f>I67+L67</f>
-        <v>60</v>
-      </c>
-      <c r="L69" s="217"/>
-      <c r="M69" s="218">
+        <v>1867</v>
+      </c>
+      <c r="L69" s="253"/>
+      <c r="M69" s="254">
         <f>N63+M63</f>
-        <v>0</v>
-      </c>
-      <c r="N69" s="219"/>
+        <v>52954</v>
+      </c>
+      <c r="N69" s="255"/>
       <c r="P69" s="96"/>
       <c r="Q69" s="9"/>
     </row>
-    <row r="70" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D70" s="225" t="s">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D70" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="225"/>
+      <c r="E70" s="261"/>
       <c r="F70" s="136">
         <f>F67-K69-C67</f>
-        <v>5502</v>
+        <v>54174</v>
       </c>
       <c r="I70" s="137"/>
       <c r="J70" s="138"/>
@@ -11576,25 +11935,25 @@
       <c r="Q70" s="9"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="220"/>
-      <c r="E71" s="220"/>
+      <c r="D71" s="256"/>
+      <c r="E71" s="256"/>
       <c r="F71" s="131">
         <v>0</v>
       </c>
-      <c r="I71" s="221" t="s">
+      <c r="I71" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="222"/>
-      <c r="K71" s="223">
+      <c r="J71" s="258"/>
+      <c r="K71" s="259">
         <f>F73+F74+F75</f>
-        <v>5502</v>
-      </c>
-      <c r="L71" s="224"/>
+        <v>54174</v>
+      </c>
+      <c r="L71" s="260"/>
       <c r="P71" s="96"/>
       <c r="Q71" s="9"/>
     </row>
     <row r="72" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D72" s="263"/>
+      <c r="D72" s="220"/>
       <c r="E72" s="140"/>
       <c r="F72" s="141">
         <v>0</v>
@@ -11613,21 +11972,21 @@
       </c>
       <c r="F73" s="131">
         <f>SUM(F70:F72)</f>
-        <v>5502</v>
+        <v>54174</v>
       </c>
       <c r="H73" s="20"/>
       <c r="I73" s="146" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="147"/>
-      <c r="K73" s="205">
+      <c r="K73" s="241">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L73" s="206"/>
+      <c r="L73" s="242"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="264" t="s">
+      <c r="D74" s="221" t="s">
         <v>16</v>
       </c>
       <c r="E74" s="133"/>
@@ -11637,22 +11996,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="150"/>
-      <c r="D75" s="207" t="s">
+      <c r="D75" s="243" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="208"/>
+      <c r="E75" s="244"/>
       <c r="F75" s="151">
         <v>0</v>
       </c>
-      <c r="I75" s="209" t="s">
+      <c r="I75" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="210"/>
-      <c r="K75" s="211">
+      <c r="J75" s="246"/>
+      <c r="K75" s="247">
         <f>K71+K73</f>
-        <v>5502</v>
-      </c>
-      <c r="L75" s="211"/>
+        <v>54174</v>
+      </c>
+      <c r="L75" s="247"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="152"/>
@@ -11670,7 +12029,7 @@
     <row r="78" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="159"/>
       <c r="C78" s="160"/>
-      <c r="D78" s="265"/>
+      <c r="D78" s="222"/>
       <c r="E78" s="96"/>
       <c r="I78" s="157"/>
       <c r="J78" s="157"/>
@@ -11679,14 +12038,14 @@
       <c r="M78" s="162"/>
       <c r="N78" s="133"/>
     </row>
-    <row r="79" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B79" s="159"/>
       <c r="C79" s="163"/>
       <c r="E79" s="96"/>
       <c r="M79" s="162"/>
       <c r="N79" s="133"/>
     </row>
-    <row r="80" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B80" s="159"/>
       <c r="C80" s="163"/>
       <c r="E80" s="96"/>
@@ -11694,13 +12053,13 @@
       <c r="L80" s="165"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="159"/>
       <c r="C81" s="163"/>
       <c r="E81" s="96"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="159"/>
       <c r="C82" s="163"/>
       <c r="E82" s="96"/>
@@ -11777,6 +12136,21 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
@@ -11784,21 +12158,6 @@
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12039,15 +12398,15 @@
       <c r="F21" s="187"/>
     </row>
     <row r="22" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="244" t="s">
+      <c r="D22" s="262" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="245"/>
+      <c r="E22" s="263"/>
       <c r="F22" s="188"/>
     </row>
     <row r="23" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="246"/>
-      <c r="E23" s="247"/>
+      <c r="D23" s="264"/>
+      <c r="E23" s="265"/>
       <c r="F23" s="188"/>
     </row>
     <row r="24" spans="3:6" ht="21" x14ac:dyDescent="0.35">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  VERDURAS   M A Y O    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  VERDURAS   M A Y O    2023.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="     M A R Z O     2 0 2 3     " sheetId="1" r:id="rId1"/>
     <sheet name="    A B R I L     2 0 2 3      " sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="    M A Y O       2 0 2 3      " sheetId="3" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
     <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="69">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -387,6 +387,30 @@
   <si>
     <t>747.00--+--32.00  Sin Baucher</t>
   </si>
+  <si>
+    <t xml:space="preserve">   194.00---+---65.00--+ 5.00-- Sin Baucher </t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>FRUTAS</t>
+  </si>
+  <si>
+    <t>HUEVO</t>
+  </si>
+  <si>
+    <t>LEGUMBRES</t>
+  </si>
+  <si>
+    <t>PAN CAJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMISION Banco </t>
+  </si>
+  <si>
+    <t>TOTAL PLAY</t>
+  </si>
 </sst>
 </file>
 
@@ -400,7 +424,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,14 +790,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -784,6 +800,22 @@
       <b/>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1784,7 +1816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2212,135 +2244,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="4" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2356,24 +2259,156 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="46" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="49" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="46" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="48" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="46" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="48" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="48" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="31" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="47" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="18" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="48" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="4" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2383,13 +2418,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF33"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FF99FF33"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4002,7 +4037,7 @@
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,31 +4063,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="232"/>
-      <c r="C1" s="234" t="s">
+      <c r="B1" s="262"/>
+      <c r="C1" s="264" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="233"/>
+      <c r="B2" s="263"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="231" t="s">
+      <c r="F2" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="279"/>
+      <c r="J2" s="279"/>
       <c r="K2" s="176" t="s">
         <v>29</v>
       </c>
@@ -4061,21 +4096,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="236" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="237"/>
+      <c r="B3" s="266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="267"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="238" t="s">
+      <c r="H3" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="238"/>
+      <c r="I3" s="268"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="223" t="s">
+      <c r="R3" s="271" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4088,14 +4123,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="225" t="s">
+      <c r="E4" s="273" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="226"/>
-      <c r="H4" s="227" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="228"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4105,11 +4140,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="229" t="s">
+      <c r="P4" s="277" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="230"/>
-      <c r="R4" s="224"/>
+      <c r="Q4" s="278"/>
+      <c r="R4" s="272"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -5939,7 +5974,7 @@
       <c r="J45" s="72"/>
       <c r="K45" s="99"/>
       <c r="L45" s="74"/>
-      <c r="M45" s="239">
+      <c r="M45" s="269">
         <f>SUM(M5:M39)</f>
         <v>64841</v>
       </c>
@@ -5975,7 +6010,7 @@
       <c r="J46" s="72"/>
       <c r="K46" s="104"/>
       <c r="L46" s="74"/>
-      <c r="M46" s="240"/>
+      <c r="M46" s="270"/>
       <c r="N46" s="249"/>
       <c r="P46" s="96"/>
       <c r="Q46" s="9"/>
@@ -6302,6 +6337,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
@@ -6314,16 +6359,6 @@
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6340,10 +6375,10 @@
   <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D88" sqref="D87:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6369,31 +6404,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="232"/>
-      <c r="C1" s="234" t="s">
+      <c r="B1" s="262"/>
+      <c r="C1" s="264" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="233"/>
+      <c r="B2" s="263"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="231" t="s">
+      <c r="F2" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="279"/>
+      <c r="J2" s="279"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -6404,21 +6439,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="236" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="237"/>
+      <c r="B3" s="266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="267"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="238" t="s">
+      <c r="H3" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="238"/>
+      <c r="I3" s="268"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="223" t="s">
+      <c r="R3" s="271" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6431,14 +6466,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="225" t="s">
+      <c r="E4" s="273" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="226"/>
-      <c r="H4" s="227" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="228"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -6448,11 +6483,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="229" t="s">
+      <c r="P4" s="277" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="230"/>
-      <c r="R4" s="224"/>
+      <c r="Q4" s="278"/>
+      <c r="R4" s="272"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -8991,7 +9026,7 @@
       <c r="J63" s="72"/>
       <c r="K63" s="99"/>
       <c r="L63" s="74"/>
-      <c r="M63" s="239">
+      <c r="M63" s="269">
         <f>SUM(M5:M48)</f>
         <v>88632</v>
       </c>
@@ -9027,7 +9062,7 @@
       <c r="J64" s="72"/>
       <c r="K64" s="104"/>
       <c r="L64" s="74"/>
-      <c r="M64" s="240"/>
+      <c r="M64" s="270"/>
       <c r="N64" s="249"/>
       <c r="P64" s="96"/>
       <c r="Q64" s="9"/>
@@ -9354,6 +9389,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9364,18 +9411,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="M69:N69"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.33" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9386,10 +9421,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FF33"/>
+  </sheetPr>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="E39" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9401,7 +9439,7 @@
     <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
     <col min="7" max="7" width="2.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="4" customWidth="1"/>
     <col min="13" max="13" width="18.140625" style="5" customWidth="1"/>
@@ -9410,36 +9448,36 @@
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
     <col min="17" max="17" width="18.140625" customWidth="1"/>
     <col min="18" max="18" width="23.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="28.85546875" style="275" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" style="235" customWidth="1"/>
     <col min="20" max="20" width="13.140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="232"/>
-      <c r="C1" s="234" t="s">
+      <c r="B1" s="262"/>
+      <c r="C1" s="264" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="233"/>
+      <c r="B2" s="263"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="231" t="s">
+      <c r="F2" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="279"/>
+      <c r="J2" s="279"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -9450,21 +9488,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="236" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="237"/>
+      <c r="B3" s="266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="267"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="238" t="s">
+      <c r="H3" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="238"/>
+      <c r="I3" s="268"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="223" t="s">
+      <c r="R3" s="271" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9477,14 +9515,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="225" t="s">
+      <c r="E4" s="273" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="226"/>
-      <c r="H4" s="227" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="228"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -9494,11 +9532,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="229" t="s">
+      <c r="P4" s="277" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="230"/>
-      <c r="R4" s="224"/>
+      <c r="Q4" s="278"/>
+      <c r="R4" s="272"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9535,7 +9573,7 @@
       <c r="N5" s="31">
         <v>3759</v>
       </c>
-      <c r="O5" s="266"/>
+      <c r="O5" s="223"/>
       <c r="P5" s="33">
         <f>N5+M5+L5+I5+C5</f>
         <v>10293</v>
@@ -9547,10 +9585,10 @@
       <c r="R5" s="48">
         <v>0</v>
       </c>
-      <c r="S5" s="279" t="s">
+      <c r="S5" s="236" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="272" t="s">
+      <c r="T5" s="229" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9601,7 +9639,7 @@
       <c r="R6" s="48">
         <v>0</v>
       </c>
-      <c r="S6" s="277"/>
+      <c r="S6" s="237"/>
       <c r="T6" s="34" t="s">
         <v>46</v>
       </c>
@@ -9639,7 +9677,7 @@
       <c r="N7" s="31">
         <v>2650</v>
       </c>
-      <c r="O7" s="266"/>
+      <c r="O7" s="223"/>
       <c r="P7" s="33">
         <f>N7+M7+L7+I7+C7</f>
         <v>8116</v>
@@ -9651,7 +9689,7 @@
       <c r="R7" s="48">
         <v>0</v>
       </c>
-      <c r="S7" s="277" t="s">
+      <c r="S7" s="237" t="s">
         <v>56</v>
       </c>
       <c r="T7" s="34" t="s">
@@ -9703,7 +9741,7 @@
       <c r="R8" s="48">
         <v>0</v>
       </c>
-      <c r="S8" s="277"/>
+      <c r="S8" s="237"/>
       <c r="T8" s="34" t="s">
         <v>46</v>
       </c>
@@ -9753,7 +9791,7 @@
       <c r="R9" s="48">
         <v>0</v>
       </c>
-      <c r="S9" s="277"/>
+      <c r="S9" s="237"/>
       <c r="T9" s="34" t="s">
         <v>46</v>
       </c>
@@ -9796,14 +9834,14 @@
         <f>N10+M10+L10+I10+C10</f>
         <v>8061</v>
       </c>
-      <c r="Q10" s="267">
+      <c r="Q10" s="224">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="R10" s="48">
         <v>0</v>
       </c>
-      <c r="S10" s="277"/>
+      <c r="S10" s="237"/>
       <c r="T10" s="34" t="s">
         <v>46</v>
       </c>
@@ -9844,19 +9882,19 @@
       <c r="N11" s="31">
         <v>1365</v>
       </c>
-      <c r="O11" s="268"/>
+      <c r="O11" s="225"/>
       <c r="P11" s="33">
         <f>N11+M11+L11+I11+C11</f>
         <v>5009</v>
       </c>
-      <c r="Q11" s="267">
+      <c r="Q11" s="224">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="R11" s="48">
         <v>0</v>
       </c>
-      <c r="S11" s="277"/>
+      <c r="S11" s="237"/>
       <c r="T11" s="34" t="s">
         <v>46</v>
       </c>
@@ -9899,14 +9937,14 @@
         <f t="shared" si="1"/>
         <v>9977</v>
       </c>
-      <c r="Q12" s="267">
+      <c r="Q12" s="224">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="R12" s="48">
         <v>0</v>
       </c>
-      <c r="S12" s="277"/>
+      <c r="S12" s="237"/>
       <c r="T12" s="34" t="s">
         <v>46</v>
       </c>
@@ -9949,14 +9987,14 @@
         <f t="shared" si="1"/>
         <v>5701</v>
       </c>
-      <c r="Q13" s="267">
+      <c r="Q13" s="224">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="R13" s="48">
         <v>0</v>
       </c>
-      <c r="S13" s="277"/>
+      <c r="S13" s="237"/>
       <c r="T13" s="34" t="s">
         <v>46</v>
       </c>
@@ -10006,7 +10044,7 @@
       <c r="R14" s="48">
         <v>0</v>
       </c>
-      <c r="S14" s="277"/>
+      <c r="S14" s="237"/>
       <c r="T14" s="34" t="s">
         <v>47</v>
       </c>
@@ -10019,7 +10057,7 @@
       <c r="C15" s="22">
         <v>3331</v>
       </c>
-      <c r="D15" s="270" t="s">
+      <c r="D15" s="227" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="24">
@@ -10041,10 +10079,10 @@
       <c r="M15" s="30">
         <v>787</v>
       </c>
-      <c r="N15" s="274">
+      <c r="N15" s="231">
         <v>1331</v>
       </c>
-      <c r="O15" s="269"/>
+      <c r="O15" s="226"/>
       <c r="P15" s="33">
         <f t="shared" si="1"/>
         <v>5689</v>
@@ -10056,7 +10094,7 @@
       <c r="R15" s="48">
         <v>0</v>
       </c>
-      <c r="S15" s="277" t="s">
+      <c r="S15" s="237" t="s">
         <v>57</v>
       </c>
       <c r="T15" s="34" t="s">
@@ -10110,7 +10148,7 @@
       <c r="R16" s="48">
         <v>0</v>
       </c>
-      <c r="S16" s="277"/>
+      <c r="S16" s="237"/>
       <c r="T16" s="34" t="s">
         <v>46</v>
       </c>
@@ -10148,19 +10186,19 @@
       <c r="N17" s="31">
         <v>2771</v>
       </c>
-      <c r="O17" s="266"/>
+      <c r="O17" s="223"/>
       <c r="P17" s="33">
         <f t="shared" si="1"/>
         <v>8207</v>
       </c>
-      <c r="Q17" s="271">
+      <c r="Q17" s="228">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R17" s="48">
         <v>0</v>
       </c>
-      <c r="S17" s="277" t="s">
+      <c r="S17" s="237" t="s">
         <v>59</v>
       </c>
       <c r="T17" s="34" t="s">
@@ -10200,7 +10238,7 @@
       <c r="N18" s="31">
         <v>2399</v>
       </c>
-      <c r="O18" s="266"/>
+      <c r="O18" s="223"/>
       <c r="P18" s="33">
         <f t="shared" si="1"/>
         <v>6511</v>
@@ -10212,7 +10250,7 @@
       <c r="R18" s="48">
         <v>0</v>
       </c>
-      <c r="S18" s="277" t="s">
+      <c r="S18" s="237" t="s">
         <v>58</v>
       </c>
       <c r="T18" s="34" t="s">
@@ -10246,7 +10284,7 @@
       <c r="J19" s="37"/>
       <c r="K19" s="53"/>
       <c r="L19" s="54"/>
-      <c r="M19" s="281">
+      <c r="M19" s="233">
         <v>2101</v>
       </c>
       <c r="N19" s="31">
@@ -10257,14 +10295,14 @@
         <f t="shared" si="1"/>
         <v>10451</v>
       </c>
-      <c r="Q19" s="280">
+      <c r="Q19" s="232">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
       <c r="R19" s="48">
         <v>0</v>
       </c>
-      <c r="S19" s="277"/>
+      <c r="S19" s="237"/>
       <c r="T19" s="34" t="s">
         <v>46</v>
       </c>
@@ -10309,19 +10347,19 @@
         <f t="shared" si="1"/>
         <v>8611</v>
       </c>
-      <c r="Q20" s="282">
+      <c r="Q20" s="234">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="R20" s="48">
         <v>0</v>
       </c>
-      <c r="S20" s="277"/>
+      <c r="S20" s="237"/>
       <c r="T20" s="34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="33" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="21">
         <v>45063</v>
@@ -10349,55 +10387,67 @@
       <c r="K21" s="209"/>
       <c r="L21" s="47"/>
       <c r="M21" s="30">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="N21" s="31">
-        <v>0</v>
+        <v>939</v>
       </c>
       <c r="O21" s="32"/>
       <c r="P21" s="33">
         <f t="shared" si="1"/>
-        <v>4301</v>
-      </c>
-      <c r="Q21" s="34">
+        <v>5679</v>
+      </c>
+      <c r="Q21" s="234">
         <f t="shared" si="0"/>
-        <v>-1379</v>
+        <v>-1</v>
       </c>
       <c r="R21" s="48">
         <v>0</v>
       </c>
-      <c r="S21" s="277"/>
-      <c r="T21" s="34"/>
+      <c r="S21" s="238" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="21">
         <v>45064</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="22">
+        <v>3166</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E22" s="24">
         <v>45064</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="25">
+        <v>6402</v>
+      </c>
       <c r="G22" s="205"/>
       <c r="H22" s="27">
         <v>45064</v>
       </c>
-      <c r="I22" s="28"/>
+      <c r="I22" s="28">
+        <v>305</v>
+      </c>
       <c r="J22" s="37"/>
       <c r="K22" s="43"/>
       <c r="L22" s="57"/>
       <c r="M22" s="30">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="N22" s="31">
-        <v>0</v>
+        <v>2437</v>
       </c>
       <c r="O22" s="32"/>
       <c r="P22" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6402</v>
       </c>
       <c r="Q22" s="34">
         <f t="shared" si="0"/>
@@ -10406,38 +10456,48 @@
       <c r="R22" s="48">
         <v>0</v>
       </c>
-      <c r="S22" s="277"/>
-      <c r="T22" s="34"/>
+      <c r="S22" s="237"/>
+      <c r="T22" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="21">
         <v>45065</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="50"/>
+      <c r="C23" s="22">
+        <v>2735</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E23" s="24">
         <v>45065</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="25">
+        <v>6721</v>
+      </c>
       <c r="G23" s="205"/>
       <c r="H23" s="27">
         <v>45065</v>
       </c>
-      <c r="I23" s="28"/>
+      <c r="I23" s="28">
+        <v>213</v>
+      </c>
       <c r="J23" s="58"/>
       <c r="K23" s="59"/>
       <c r="L23" s="47"/>
       <c r="M23" s="30">
-        <v>0</v>
+        <v>2971</v>
       </c>
       <c r="N23" s="31">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="O23" s="32"/>
       <c r="P23" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6721</v>
       </c>
       <c r="Q23" s="172">
         <f t="shared" si="0"/>
@@ -10446,38 +10506,50 @@
       <c r="R23" s="48">
         <v>0</v>
       </c>
-      <c r="S23" s="277"/>
-      <c r="T23" s="34"/>
+      <c r="S23" s="237" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="21">
         <v>45066</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="50"/>
+      <c r="C24" s="22">
+        <v>5060</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E24" s="24">
         <v>45066</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="25">
+        <v>5905</v>
+      </c>
       <c r="G24" s="205"/>
       <c r="H24" s="27">
         <v>45066</v>
       </c>
-      <c r="I24" s="28"/>
+      <c r="I24" s="28">
+        <v>0</v>
+      </c>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
       <c r="L24" s="62"/>
       <c r="M24" s="30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N24" s="31">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="O24" s="32"/>
       <c r="P24" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5905</v>
       </c>
       <c r="Q24" s="34">
         <f t="shared" si="0"/>
@@ -10486,38 +10558,48 @@
       <c r="R24" s="48">
         <v>0</v>
       </c>
-      <c r="S24" s="277"/>
-      <c r="T24" s="34"/>
+      <c r="S24" s="237"/>
+      <c r="T24" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
       <c r="B25" s="21">
         <v>45067</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="50"/>
+      <c r="C25" s="22">
+        <v>703</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>55</v>
+      </c>
       <c r="E25" s="24">
         <v>45067</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="25">
+        <v>4519</v>
+      </c>
       <c r="G25" s="205"/>
       <c r="H25" s="27">
         <v>45067</v>
       </c>
-      <c r="I25" s="28"/>
+      <c r="I25" s="28">
+        <v>210</v>
+      </c>
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
       <c r="L25" s="65"/>
       <c r="M25" s="30">
-        <v>0</v>
+        <v>2556</v>
       </c>
       <c r="N25" s="31">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="O25" s="32"/>
       <c r="P25" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4519</v>
       </c>
       <c r="Q25" s="34">
         <f t="shared" si="0"/>
@@ -10526,38 +10608,48 @@
       <c r="R25" s="48">
         <v>0</v>
       </c>
-      <c r="S25" s="277"/>
-      <c r="T25" s="34"/>
+      <c r="S25" s="237"/>
+      <c r="T25" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="21">
         <v>45068</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="50"/>
+      <c r="C26" s="22">
+        <v>3301</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E26" s="24">
         <v>45068</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="25">
+        <v>10919</v>
+      </c>
       <c r="G26" s="205"/>
       <c r="H26" s="27">
         <v>45068</v>
       </c>
-      <c r="I26" s="28"/>
+      <c r="I26" s="28">
+        <v>207</v>
+      </c>
       <c r="J26" s="37"/>
       <c r="K26" s="61"/>
       <c r="L26" s="47"/>
       <c r="M26" s="30">
-        <v>0</v>
+        <v>6422</v>
       </c>
       <c r="N26" s="31">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="O26" s="32"/>
       <c r="P26" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10919</v>
       </c>
       <c r="Q26" s="34">
         <f t="shared" si="0"/>
@@ -10566,38 +10658,50 @@
       <c r="R26" s="48">
         <v>0</v>
       </c>
-      <c r="S26" s="277"/>
-      <c r="T26" s="34"/>
+      <c r="S26" s="237"/>
+      <c r="T26" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="27" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="B27" s="21">
         <v>45069</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="50"/>
+      <c r="C27" s="22">
+        <v>4650</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E27" s="24">
         <v>45069</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="25">
+        <v>5852</v>
+      </c>
       <c r="G27" s="205"/>
       <c r="H27" s="27">
         <v>45069</v>
       </c>
-      <c r="I27" s="28"/>
+      <c r="I27" s="28">
+        <v>140</v>
+      </c>
       <c r="J27" s="66"/>
       <c r="K27" s="67"/>
       <c r="L27" s="65"/>
       <c r="M27" s="30">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="N27" s="31">
-        <v>0</v>
-      </c>
-      <c r="O27" s="32"/>
+        <v>806</v>
+      </c>
+      <c r="O27" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="P27" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5852</v>
       </c>
       <c r="Q27" s="34">
         <f t="shared" si="0"/>
@@ -10606,38 +10710,48 @@
       <c r="R27" s="48">
         <v>0</v>
       </c>
-      <c r="S27" s="277"/>
-      <c r="T27" s="34"/>
+      <c r="S27" s="237"/>
+      <c r="T27" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="21">
         <v>45070</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="50"/>
+      <c r="C28" s="22">
+        <v>3031</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E28" s="24">
         <v>45070</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="25">
+        <v>5864</v>
+      </c>
       <c r="G28" s="205"/>
       <c r="H28" s="27">
         <v>45070</v>
       </c>
-      <c r="I28" s="28"/>
+      <c r="I28" s="28">
+        <v>125</v>
+      </c>
       <c r="J28" s="68"/>
       <c r="K28" s="69"/>
       <c r="L28" s="65"/>
       <c r="M28" s="30">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="N28" s="31">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="O28" s="32"/>
       <c r="P28" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5864</v>
       </c>
       <c r="Q28" s="34">
         <f t="shared" si="0"/>
@@ -10646,38 +10760,48 @@
       <c r="R28" s="48">
         <v>0</v>
       </c>
-      <c r="S28" s="277"/>
-      <c r="T28" s="34"/>
+      <c r="S28" s="237"/>
+      <c r="T28" s="34" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="21">
         <v>45071</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="195"/>
+      <c r="C29" s="22">
+        <v>3365</v>
+      </c>
+      <c r="D29" s="195" t="s">
+        <v>0</v>
+      </c>
       <c r="E29" s="24">
         <v>45071</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="25">
+        <v>4347</v>
+      </c>
       <c r="G29" s="205"/>
       <c r="H29" s="27">
         <v>45071</v>
       </c>
-      <c r="I29" s="28"/>
+      <c r="I29" s="28">
+        <v>60</v>
+      </c>
       <c r="J29" s="66"/>
       <c r="K29" s="71"/>
       <c r="L29" s="65"/>
       <c r="M29" s="30">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N29" s="31">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="O29" s="32"/>
       <c r="P29" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4347</v>
       </c>
       <c r="Q29" s="34">
         <f t="shared" si="0"/>
@@ -10686,38 +10810,48 @@
       <c r="R29" s="48">
         <v>0</v>
       </c>
-      <c r="S29" s="277"/>
-      <c r="T29" s="34"/>
+      <c r="S29" s="237"/>
+      <c r="T29" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
       <c r="B30" s="21">
         <v>45072</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="195"/>
+      <c r="C30" s="22">
+        <v>3944</v>
+      </c>
+      <c r="D30" s="195" t="s">
+        <v>0</v>
+      </c>
       <c r="E30" s="24">
         <v>45072</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="25">
+        <v>4790</v>
+      </c>
       <c r="G30" s="205"/>
       <c r="H30" s="27">
         <v>45072</v>
       </c>
-      <c r="I30" s="28"/>
+      <c r="I30" s="28">
+        <v>87</v>
+      </c>
       <c r="J30" s="68"/>
       <c r="K30" s="43"/>
       <c r="L30" s="39"/>
       <c r="M30" s="30">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="N30" s="31">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="O30" s="32"/>
       <c r="P30" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4790</v>
       </c>
       <c r="Q30" s="34">
         <f t="shared" si="0"/>
@@ -10726,38 +10860,48 @@
       <c r="R30" s="48">
         <v>0</v>
       </c>
-      <c r="S30" s="277"/>
-      <c r="T30" s="34"/>
+      <c r="S30" s="237"/>
+      <c r="T30" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="21">
         <v>45073</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="22">
+        <v>4474</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="E31" s="24">
         <v>45073</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="25">
+        <v>6082</v>
+      </c>
       <c r="G31" s="205"/>
       <c r="H31" s="27">
         <v>45073</v>
       </c>
-      <c r="I31" s="28"/>
+      <c r="I31" s="28">
+        <v>60</v>
+      </c>
       <c r="J31" s="68"/>
       <c r="K31" s="210"/>
       <c r="L31" s="65"/>
       <c r="M31" s="30">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="N31" s="31">
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="O31" s="32"/>
       <c r="P31" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6082</v>
       </c>
       <c r="Q31" s="34">
         <f t="shared" si="0"/>
@@ -10766,38 +10910,48 @@
       <c r="R31" s="48">
         <v>0</v>
       </c>
-      <c r="S31" s="277"/>
-      <c r="T31" s="34"/>
+      <c r="S31" s="237"/>
+      <c r="T31" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="21">
         <v>45074</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="22">
+        <v>2007</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="E32" s="24">
         <v>45074</v>
       </c>
-      <c r="F32" s="25"/>
+      <c r="F32" s="25">
+        <v>5517</v>
+      </c>
       <c r="G32" s="205"/>
       <c r="H32" s="27">
         <v>45074</v>
       </c>
-      <c r="I32" s="28"/>
+      <c r="I32" s="28">
+        <v>0</v>
+      </c>
       <c r="J32" s="68"/>
       <c r="K32" s="43"/>
       <c r="L32" s="39"/>
       <c r="M32" s="30">
-        <v>0</v>
+        <v>2212</v>
       </c>
       <c r="N32" s="31">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="O32" s="32"/>
       <c r="P32" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5517</v>
       </c>
       <c r="Q32" s="34">
         <f t="shared" si="0"/>
@@ -10806,7 +10960,7 @@
       <c r="R32" s="48">
         <v>0</v>
       </c>
-      <c r="S32" s="277"/>
+      <c r="S32" s="237"/>
       <c r="T32" s="34"/>
     </row>
     <row r="33" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10814,30 +10968,38 @@
       <c r="B33" s="21">
         <v>45075</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="22">
+        <v>6754</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="E33" s="24">
         <v>45075</v>
       </c>
-      <c r="F33" s="25"/>
+      <c r="F33" s="25">
+        <v>11631</v>
+      </c>
       <c r="G33" s="205"/>
       <c r="H33" s="27">
         <v>45075</v>
       </c>
-      <c r="I33" s="28"/>
+      <c r="I33" s="28">
+        <v>80</v>
+      </c>
       <c r="J33" s="68"/>
       <c r="K33" s="210"/>
       <c r="L33" s="102"/>
       <c r="M33" s="30">
-        <v>0</v>
+        <v>2622</v>
       </c>
       <c r="N33" s="31">
-        <v>0</v>
+        <v>2175</v>
       </c>
       <c r="O33" s="32"/>
       <c r="P33" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11631</v>
       </c>
       <c r="Q33" s="34">
         <f t="shared" si="0"/>
@@ -10846,38 +11008,46 @@
       <c r="R33" s="48">
         <v>0</v>
       </c>
-      <c r="S33" s="277"/>
-      <c r="T33" s="273"/>
+      <c r="S33" s="237"/>
+      <c r="T33" s="230"/>
     </row>
     <row r="34" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="21">
         <v>45076</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="22">
+        <v>4940</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="E34" s="24">
         <v>45076</v>
       </c>
-      <c r="F34" s="25"/>
+      <c r="F34" s="25">
+        <v>7712</v>
+      </c>
       <c r="G34" s="205"/>
       <c r="H34" s="27">
         <v>45076</v>
       </c>
-      <c r="I34" s="28"/>
+      <c r="I34" s="28">
+        <v>670</v>
+      </c>
       <c r="J34" s="68"/>
       <c r="K34" s="211"/>
       <c r="L34" s="9"/>
       <c r="M34" s="30">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="N34" s="31">
-        <v>0</v>
+        <v>1531</v>
       </c>
       <c r="O34" s="32"/>
       <c r="P34" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7712</v>
       </c>
       <c r="Q34" s="34">
         <f t="shared" si="0"/>
@@ -10886,37 +11056,45 @@
       <c r="R34" s="48">
         <v>0</v>
       </c>
-      <c r="S34" s="277"/>
+      <c r="S34" s="237"/>
     </row>
     <row r="35" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="21">
         <v>45077</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="22">
+        <v>3003</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="E35" s="24">
         <v>45077</v>
       </c>
-      <c r="F35" s="25"/>
+      <c r="F35" s="25">
+        <v>4478</v>
+      </c>
       <c r="G35" s="205"/>
       <c r="H35" s="27">
         <v>45077</v>
       </c>
-      <c r="I35" s="28"/>
+      <c r="I35" s="28">
+        <v>0</v>
+      </c>
       <c r="J35" s="68"/>
       <c r="K35" s="210"/>
       <c r="L35" s="102"/>
       <c r="M35" s="30">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="N35" s="31">
-        <v>0</v>
+        <v>1060</v>
       </c>
       <c r="O35" s="32"/>
       <c r="P35" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4478</v>
       </c>
       <c r="Q35" s="34">
         <f t="shared" si="0"/>
@@ -10925,7 +11103,7 @@
       <c r="R35" s="48">
         <v>0</v>
       </c>
-      <c r="S35" s="277"/>
+      <c r="S35" s="237"/>
     </row>
     <row r="36" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
@@ -10958,7 +11136,7 @@
       <c r="R36" s="48">
         <v>0</v>
       </c>
-      <c r="S36" s="278"/>
+      <c r="S36" s="239"/>
     </row>
     <row r="37" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
@@ -10990,21 +11168,33 @@
       <c r="R37" s="48">
         <v>0</v>
       </c>
-      <c r="S37" s="276"/>
+      <c r="S37" s="240"/>
     </row>
     <row r="38" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
-      <c r="B38" s="204"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="79"/>
+      <c r="B38" s="204">
+        <v>45048</v>
+      </c>
+      <c r="C38" s="201">
+        <v>1107.43</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>63</v>
+      </c>
       <c r="E38" s="24"/>
       <c r="F38" s="25"/>
       <c r="G38" s="205"/>
       <c r="H38" s="27"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="210"/>
-      <c r="L38" s="102"/>
+      <c r="J38" s="68">
+        <v>45077</v>
+      </c>
+      <c r="K38" s="210" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" s="102">
+        <v>36.56</v>
+      </c>
       <c r="M38" s="30">
         <v>0</v>
       </c>
@@ -11022,21 +11212,33 @@
       <c r="R38" s="48">
         <v>0</v>
       </c>
-      <c r="S38" s="276"/>
+      <c r="S38" s="240"/>
     </row>
     <row r="39" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
-      <c r="B39" s="204"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="79"/>
+      <c r="B39" s="204">
+        <v>45048</v>
+      </c>
+      <c r="C39" s="201">
+        <v>1596.13</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>64</v>
+      </c>
       <c r="E39" s="24"/>
       <c r="F39" s="25"/>
       <c r="G39" s="205"/>
       <c r="H39" s="27"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="210"/>
-      <c r="L39" s="39"/>
+      <c r="J39" s="68">
+        <v>45058</v>
+      </c>
+      <c r="K39" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="L39" s="39">
+        <v>663</v>
+      </c>
       <c r="M39" s="30">
         <v>0</v>
       </c>
@@ -11052,13 +11254,19 @@
         <v>0</v>
       </c>
       <c r="R39" s="48"/>
-      <c r="S39" s="276"/>
+      <c r="S39" s="240"/>
     </row>
     <row r="40" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
-      <c r="B40" s="204"/>
-      <c r="C40" s="201"/>
-      <c r="D40" s="79"/>
+      <c r="B40" s="204">
+        <v>45049</v>
+      </c>
+      <c r="C40" s="201">
+        <v>1981.9</v>
+      </c>
+      <c r="D40" s="79" t="s">
+        <v>63</v>
+      </c>
       <c r="E40" s="24"/>
       <c r="F40" s="25"/>
       <c r="G40" s="205"/>
@@ -11082,13 +11290,19 @@
         <v>0</v>
       </c>
       <c r="R40" s="48"/>
-      <c r="S40" s="276"/>
+      <c r="S40" s="240"/>
     </row>
     <row r="41" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
-      <c r="B41" s="204"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="79"/>
+      <c r="B41" s="204">
+        <v>45051</v>
+      </c>
+      <c r="C41" s="201">
+        <v>1881.5</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>65</v>
+      </c>
       <c r="E41" s="24"/>
       <c r="F41" s="25"/>
       <c r="G41" s="205"/>
@@ -11112,13 +11326,19 @@
         <v>0</v>
       </c>
       <c r="R41" s="48"/>
-      <c r="S41" s="276"/>
+      <c r="S41" s="240"/>
     </row>
     <row r="42" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="201"/>
-      <c r="D42" s="79"/>
+      <c r="B42" s="204">
+        <v>45055</v>
+      </c>
+      <c r="C42" s="201">
+        <v>480</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>66</v>
+      </c>
       <c r="E42" s="24"/>
       <c r="F42" s="25"/>
       <c r="G42" s="205"/>
@@ -11142,13 +11362,19 @@
         <v>0</v>
       </c>
       <c r="R42" s="48"/>
-      <c r="S42" s="276"/>
+      <c r="S42" s="240"/>
     </row>
     <row r="43" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20"/>
-      <c r="B43" s="204"/>
-      <c r="C43" s="201"/>
-      <c r="D43" s="79"/>
+      <c r="B43" s="204">
+        <v>45058</v>
+      </c>
+      <c r="C43" s="201">
+        <v>737.32</v>
+      </c>
+      <c r="D43" s="79" t="s">
+        <v>64</v>
+      </c>
       <c r="E43" s="24"/>
       <c r="F43" s="25"/>
       <c r="G43" s="205"/>
@@ -11172,13 +11398,19 @@
         <v>0</v>
       </c>
       <c r="R43" s="48"/>
-      <c r="S43" s="276"/>
+      <c r="S43" s="240"/>
     </row>
     <row r="44" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20"/>
-      <c r="B44" s="204"/>
-      <c r="C44" s="201"/>
-      <c r="D44" s="79"/>
+      <c r="B44" s="204">
+        <v>45062</v>
+      </c>
+      <c r="C44" s="201">
+        <v>3391</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>65</v>
+      </c>
       <c r="E44" s="24"/>
       <c r="F44" s="25"/>
       <c r="G44" s="205"/>
@@ -11202,13 +11434,19 @@
         <v>0</v>
       </c>
       <c r="R44" s="48"/>
-      <c r="S44" s="276"/>
+      <c r="S44" s="240"/>
     </row>
     <row r="45" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20"/>
-      <c r="B45" s="204"/>
-      <c r="C45" s="201"/>
-      <c r="D45" s="79"/>
+      <c r="B45" s="204">
+        <v>45062</v>
+      </c>
+      <c r="C45" s="201">
+        <v>420</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>66</v>
+      </c>
       <c r="E45" s="24"/>
       <c r="F45" s="25"/>
       <c r="G45" s="205"/>
@@ -11232,13 +11470,19 @@
         <v>0</v>
       </c>
       <c r="R45" s="48"/>
-      <c r="S45" s="276"/>
+      <c r="S45" s="240"/>
     </row>
     <row r="46" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20"/>
-      <c r="B46" s="204"/>
-      <c r="C46" s="201"/>
-      <c r="D46" s="79"/>
+      <c r="B46" s="204">
+        <v>45062</v>
+      </c>
+      <c r="C46" s="201">
+        <v>862</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>31</v>
+      </c>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="205"/>
@@ -11262,13 +11506,19 @@
         <v>0</v>
       </c>
       <c r="R46" s="48"/>
-      <c r="S46" s="276"/>
+      <c r="S46" s="240"/>
     </row>
     <row r="47" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="20"/>
-      <c r="B47" s="204"/>
-      <c r="C47" s="201"/>
-      <c r="D47" s="79"/>
+      <c r="B47" s="204">
+        <v>45063</v>
+      </c>
+      <c r="C47" s="201">
+        <v>1675.76</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>64</v>
+      </c>
       <c r="E47" s="24"/>
       <c r="F47" s="25"/>
       <c r="G47" s="205"/>
@@ -11292,13 +11542,19 @@
         <v>0</v>
       </c>
       <c r="R47" s="48"/>
-      <c r="S47" s="276"/>
+      <c r="S47" s="240"/>
     </row>
     <row r="48" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20"/>
-      <c r="B48" s="204"/>
-      <c r="C48" s="201"/>
-      <c r="D48" s="79"/>
+      <c r="B48" s="204">
+        <v>45065</v>
+      </c>
+      <c r="C48" s="201">
+        <v>746</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>31</v>
+      </c>
       <c r="E48" s="24"/>
       <c r="F48" s="25"/>
       <c r="G48" s="205"/>
@@ -11322,13 +11578,19 @@
         <v>0</v>
       </c>
       <c r="R48" s="48"/>
-      <c r="S48" s="276"/>
+      <c r="S48" s="240"/>
     </row>
     <row r="49" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20"/>
-      <c r="B49" s="204"/>
-      <c r="C49" s="201"/>
-      <c r="D49" s="79"/>
+      <c r="B49" s="204">
+        <v>45068</v>
+      </c>
+      <c r="C49" s="201">
+        <v>1222</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>31</v>
+      </c>
       <c r="E49" s="24"/>
       <c r="F49" s="25"/>
       <c r="G49" s="205"/>
@@ -11354,13 +11616,19 @@
       <c r="R49" s="48">
         <v>0</v>
       </c>
-      <c r="S49" s="276"/>
+      <c r="S49" s="240"/>
     </row>
     <row r="50" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="20"/>
-      <c r="B50" s="204"/>
-      <c r="C50" s="201"/>
-      <c r="D50" s="79"/>
+      <c r="B50" s="204">
+        <v>45069</v>
+      </c>
+      <c r="C50" s="201">
+        <v>1522.77</v>
+      </c>
+      <c r="D50" s="79" t="s">
+        <v>64</v>
+      </c>
       <c r="E50" s="24"/>
       <c r="F50" s="25"/>
       <c r="G50" s="205"/>
@@ -11386,13 +11654,19 @@
       <c r="R50" s="48">
         <v>0</v>
       </c>
-      <c r="S50" s="276"/>
+      <c r="S50" s="240"/>
     </row>
     <row r="51" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="20"/>
-      <c r="B51" s="204"/>
-      <c r="C51" s="201"/>
-      <c r="D51" s="79"/>
+      <c r="B51" s="204">
+        <v>45072</v>
+      </c>
+      <c r="C51" s="201">
+        <v>1342.5</v>
+      </c>
+      <c r="D51" s="79" t="s">
+        <v>65</v>
+      </c>
       <c r="E51" s="24"/>
       <c r="F51" s="25"/>
       <c r="G51" s="205"/>
@@ -11418,13 +11692,19 @@
       <c r="R51" s="48">
         <v>0</v>
       </c>
-      <c r="S51" s="276"/>
+      <c r="S51" s="240"/>
     </row>
     <row r="52" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="20"/>
-      <c r="B52" s="204"/>
-      <c r="C52" s="201"/>
-      <c r="D52" s="79"/>
+      <c r="B52" s="204">
+        <v>45072</v>
+      </c>
+      <c r="C52" s="201">
+        <v>480</v>
+      </c>
+      <c r="D52" s="79" t="s">
+        <v>66</v>
+      </c>
       <c r="E52" s="24"/>
       <c r="F52" s="89"/>
       <c r="G52" s="205"/>
@@ -11450,13 +11730,19 @@
       <c r="R52" s="203">
         <v>0</v>
       </c>
-      <c r="S52" s="276"/>
+      <c r="S52" s="240"/>
     </row>
     <row r="53" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20"/>
-      <c r="B53" s="204"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="79"/>
+      <c r="B53" s="204">
+        <v>45077</v>
+      </c>
+      <c r="C53" s="201">
+        <v>1320</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>31</v>
+      </c>
       <c r="E53" s="24"/>
       <c r="F53" s="89"/>
       <c r="G53" s="205"/>
@@ -11480,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="202"/>
-      <c r="S53" s="276"/>
+      <c r="S53" s="240"/>
     </row>
     <row r="54" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="20"/>
@@ -11510,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="202"/>
-      <c r="S54" s="276"/>
+      <c r="S54" s="240"/>
     </row>
     <row r="55" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20"/>
@@ -11540,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="202"/>
-      <c r="S55" s="276"/>
+      <c r="S55" s="240"/>
     </row>
     <row r="56" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="20"/>
@@ -11570,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="R56" s="202"/>
-      <c r="S56" s="276"/>
+      <c r="S56" s="240"/>
     </row>
     <row r="57" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20"/>
@@ -11600,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="202"/>
-      <c r="S57" s="276"/>
+      <c r="S57" s="240"/>
     </row>
     <row r="58" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="20"/>
@@ -11630,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="202"/>
-      <c r="S58" s="276"/>
+      <c r="S58" s="240"/>
     </row>
     <row r="59" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="20"/>
@@ -11660,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="202"/>
-      <c r="S59" s="276"/>
+      <c r="S59" s="240"/>
     </row>
     <row r="60" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="20"/>
@@ -11690,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="202"/>
-      <c r="S60" s="276"/>
+      <c r="S60" s="240"/>
     </row>
     <row r="61" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="20"/>
@@ -11721,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="202"/>
-      <c r="S61" s="276"/>
+      <c r="S61" s="240"/>
     </row>
     <row r="62" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="20"/>
@@ -11756,7 +12042,7 @@
       <c r="R62" s="13">
         <v>0</v>
       </c>
-      <c r="S62" s="276"/>
+      <c r="S62" s="240"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="20"/>
@@ -11773,21 +12059,21 @@
       <c r="J63" s="72"/>
       <c r="K63" s="99"/>
       <c r="L63" s="74"/>
-      <c r="M63" s="239">
+      <c r="M63" s="269">
         <f>SUM(M5:M48)</f>
-        <v>21504</v>
+        <v>41580</v>
       </c>
       <c r="N63" s="248">
         <f>SUM(N5:N48)</f>
-        <v>31450</v>
+        <v>50201</v>
       </c>
       <c r="P63" s="100">
         <f t="shared" si="1"/>
-        <v>52954</v>
+        <v>91781</v>
       </c>
       <c r="Q63" s="101">
         <f>SUM(Q5:Q48)</f>
-        <v>-1220</v>
+        <v>158</v>
       </c>
       <c r="R63" s="101">
         <f>SUM(R5:R48)</f>
@@ -11809,7 +12095,7 @@
       <c r="J64" s="72"/>
       <c r="K64" s="104"/>
       <c r="L64" s="74"/>
-      <c r="M64" s="240"/>
+      <c r="M64" s="270"/>
       <c r="N64" s="249"/>
       <c r="P64" s="96"/>
       <c r="Q64" s="9"/>
@@ -11860,7 +12146,7 @@
       </c>
       <c r="C67" s="122">
         <f>SUM(C5:C66)</f>
-        <v>69459</v>
+        <v>141358.31</v>
       </c>
       <c r="D67" s="219"/>
       <c r="E67" s="124" t="s">
@@ -11868,7 +12154,7 @@
       </c>
       <c r="F67" s="125">
         <f>SUM(F5:F66)</f>
-        <v>125500</v>
+        <v>216239</v>
       </c>
       <c r="G67" s="123"/>
       <c r="H67" s="126" t="s">
@@ -11876,7 +12162,7 @@
       </c>
       <c r="I67" s="127">
         <f>SUM(I5:I66)</f>
-        <v>1867</v>
+        <v>4024</v>
       </c>
       <c r="J67" s="128"/>
       <c r="K67" s="129" t="s">
@@ -11884,7 +12170,7 @@
       </c>
       <c r="L67" s="130">
         <f>SUM(L5:L66)</f>
-        <v>0</v>
+        <v>699.56</v>
       </c>
       <c r="M67" s="131"/>
       <c r="N67" s="131"/>
@@ -11909,12 +12195,12 @@
       <c r="J69" s="135"/>
       <c r="K69" s="252">
         <f>I67+L67</f>
-        <v>1867</v>
+        <v>4723.5599999999995</v>
       </c>
       <c r="L69" s="253"/>
       <c r="M69" s="254">
         <f>N63+M63</f>
-        <v>52954</v>
+        <v>91781</v>
       </c>
       <c r="N69" s="255"/>
       <c r="P69" s="96"/>
@@ -11927,7 +12213,7 @@
       <c r="E70" s="261"/>
       <c r="F70" s="136">
         <f>F67-K69-C67</f>
-        <v>54174</v>
+        <v>70157.13</v>
       </c>
       <c r="I70" s="137"/>
       <c r="J70" s="138"/>
@@ -11946,7 +12232,7 @@
       <c r="J71" s="258"/>
       <c r="K71" s="259">
         <f>F73+F74+F75</f>
-        <v>54174</v>
+        <v>70157.13</v>
       </c>
       <c r="L71" s="260"/>
       <c r="P71" s="96"/>
@@ -11972,7 +12258,7 @@
       </c>
       <c r="F73" s="131">
         <f>SUM(F70:F72)</f>
-        <v>54174</v>
+        <v>70157.13</v>
       </c>
       <c r="H73" s="20"/>
       <c r="I73" s="146" t="s">
@@ -12009,7 +12295,7 @@
       <c r="J75" s="246"/>
       <c r="K75" s="247">
         <f>K71+K73</f>
-        <v>54174</v>
+        <v>70157.13</v>
       </c>
       <c r="L75" s="247"/>
     </row>
@@ -12135,22 +12421,10 @@
       <c r="F97" s="166"/>
     </row>
   </sheetData>
+  <sortState ref="B38:D56">
+    <sortCondition ref="B38:B56"/>
+  </sortState>
   <mergeCells count="22">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
@@ -12158,6 +12432,21 @@
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="K75:L75"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12398,15 +12687,15 @@
       <c r="F21" s="187"/>
     </row>
     <row r="22" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="262" t="s">
+      <c r="D22" s="280" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="263"/>
+      <c r="E22" s="281"/>
       <c r="F22" s="188"/>
     </row>
     <row r="23" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="264"/>
-      <c r="E23" s="265"/>
+      <c r="D23" s="282"/>
+      <c r="E23" s="283"/>
       <c r="F23" s="188"/>
     </row>
     <row r="24" spans="3:6" ht="21" x14ac:dyDescent="0.35">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  VERDURAS   M A Y O    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  VERDURAS   M A Y O    2023.xlsx
@@ -2280,6 +2280,60 @@
     <xf numFmtId="16" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2342,60 +2396,6 @@
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3348,13 +3348,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3401,13 +3401,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3454,13 +3454,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3507,13 +3507,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3560,13 +3560,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133352</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3621,7 +3621,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>64250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1323990" cy="419708"/>
@@ -3716,13 +3716,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4063,31 +4063,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="262"/>
-      <c r="C1" s="264" t="s">
+      <c r="B1" s="250"/>
+      <c r="C1" s="252" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="263"/>
+      <c r="B2" s="251"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="279" t="s">
+      <c r="F2" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
       <c r="K2" s="176" t="s">
         <v>29</v>
       </c>
@@ -4096,21 +4096,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="267"/>
+      <c r="B3" s="254" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="255"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="268" t="s">
+      <c r="H3" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="268"/>
+      <c r="I3" s="256"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="241" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4123,14 +4123,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="244"/>
+      <c r="H4" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="246"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4140,11 +4140,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="277" t="s">
+      <c r="P4" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="278"/>
-      <c r="R4" s="272"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="242"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -5974,11 +5974,11 @@
       <c r="J45" s="72"/>
       <c r="K45" s="99"/>
       <c r="L45" s="74"/>
-      <c r="M45" s="269">
+      <c r="M45" s="257">
         <f>SUM(M5:M39)</f>
         <v>64841</v>
       </c>
-      <c r="N45" s="248">
+      <c r="N45" s="266">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -6010,8 +6010,8 @@
       <c r="J46" s="72"/>
       <c r="K46" s="104"/>
       <c r="L46" s="74"/>
-      <c r="M46" s="270"/>
-      <c r="N46" s="249"/>
+      <c r="M46" s="258"/>
+      <c r="N46" s="267"/>
       <c r="P46" s="96"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -6103,29 +6103,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="250" t="s">
+      <c r="H51" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="251"/>
+      <c r="I51" s="269"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="252">
+      <c r="K51" s="270">
         <f>I49+L49</f>
         <v>5219.28</v>
       </c>
-      <c r="L51" s="253"/>
-      <c r="M51" s="254">
+      <c r="L51" s="271"/>
+      <c r="M51" s="272">
         <f>N45+M45</f>
         <v>64841</v>
       </c>
-      <c r="N51" s="255"/>
+      <c r="N51" s="273"/>
       <c r="P51" s="96"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="261" t="s">
+      <c r="D52" s="279" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="261"/>
+      <c r="E52" s="279"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>46856.369999999995</v>
@@ -6136,20 +6136,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="256"/>
-      <c r="E53" s="256"/>
+      <c r="D53" s="274"/>
+      <c r="E53" s="274"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="257" t="s">
+      <c r="I53" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="258"/>
-      <c r="K53" s="259">
+      <c r="J53" s="276"/>
+      <c r="K53" s="277">
         <f>F55+F56+F57</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L53" s="260"/>
+      <c r="L53" s="278"/>
       <c r="P53" s="96"/>
       <c r="Q53" s="9"/>
     </row>
@@ -6180,11 +6180,11 @@
         <v>15</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="241">
+      <c r="K55" s="259">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L55" s="242"/>
+      <c r="L55" s="260"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -6197,22 +6197,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="243" t="s">
+      <c r="D57" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="244"/>
+      <c r="E57" s="262"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="245" t="s">
+      <c r="I57" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="246"/>
-      <c r="K57" s="247">
+      <c r="J57" s="264"/>
+      <c r="K57" s="265">
         <f>K53+K55</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L57" s="247"/>
+      <c r="L57" s="265"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -6337,16 +6337,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
@@ -6359,6 +6349,16 @@
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6404,31 +6404,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="262"/>
-      <c r="C1" s="264" t="s">
+      <c r="B1" s="250"/>
+      <c r="C1" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="263"/>
+      <c r="B2" s="251"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="279" t="s">
+      <c r="F2" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -6439,21 +6439,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="267"/>
+      <c r="B3" s="254" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="255"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="268" t="s">
+      <c r="H3" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="268"/>
+      <c r="I3" s="256"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="241" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6466,14 +6466,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="244"/>
+      <c r="H4" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="246"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -6483,11 +6483,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="277" t="s">
+      <c r="P4" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="278"/>
-      <c r="R4" s="272"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="242"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9026,11 +9026,11 @@
       <c r="J63" s="72"/>
       <c r="K63" s="99"/>
       <c r="L63" s="74"/>
-      <c r="M63" s="269">
+      <c r="M63" s="257">
         <f>SUM(M5:M48)</f>
         <v>88632</v>
       </c>
-      <c r="N63" s="248">
+      <c r="N63" s="266">
         <f>SUM(N5:N48)</f>
         <v>46604</v>
       </c>
@@ -9062,8 +9062,8 @@
       <c r="J64" s="72"/>
       <c r="K64" s="104"/>
       <c r="L64" s="74"/>
-      <c r="M64" s="270"/>
-      <c r="N64" s="249"/>
+      <c r="M64" s="258"/>
+      <c r="N64" s="267"/>
       <c r="P64" s="96"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="13">
@@ -9155,29 +9155,29 @@
       <c r="A69" s="133"/>
       <c r="B69" s="134"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="250" t="s">
+      <c r="H69" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="251"/>
+      <c r="I69" s="269"/>
       <c r="J69" s="135"/>
-      <c r="K69" s="252">
+      <c r="K69" s="270">
         <f>I67+L67</f>
         <v>6435</v>
       </c>
-      <c r="L69" s="253"/>
-      <c r="M69" s="254">
+      <c r="L69" s="271"/>
+      <c r="M69" s="272">
         <f>N63+M63</f>
         <v>135236</v>
       </c>
-      <c r="N69" s="255"/>
+      <c r="N69" s="273"/>
       <c r="P69" s="96"/>
       <c r="Q69" s="9"/>
     </row>
     <row r="70" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D70" s="261" t="s">
+      <c r="D70" s="279" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="261"/>
+      <c r="E70" s="279"/>
       <c r="F70" s="136">
         <f>F67-K69-C67</f>
         <v>65323.966999999975</v>
@@ -9188,20 +9188,20 @@
       <c r="Q70" s="9"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="256"/>
-      <c r="E71" s="256"/>
+      <c r="D71" s="274"/>
+      <c r="E71" s="274"/>
       <c r="F71" s="131">
         <v>0</v>
       </c>
-      <c r="I71" s="257" t="s">
+      <c r="I71" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="258"/>
-      <c r="K71" s="259">
+      <c r="J71" s="276"/>
+      <c r="K71" s="277">
         <f>F73+F74+F75</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L71" s="260"/>
+      <c r="L71" s="278"/>
       <c r="P71" s="96"/>
       <c r="Q71" s="9"/>
     </row>
@@ -9232,11 +9232,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="147"/>
-      <c r="K73" s="241">
+      <c r="K73" s="259">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L73" s="242"/>
+      <c r="L73" s="260"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="148" t="s">
@@ -9249,22 +9249,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="150"/>
-      <c r="D75" s="243" t="s">
+      <c r="D75" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="244"/>
+      <c r="E75" s="262"/>
       <c r="F75" s="151">
         <v>0</v>
       </c>
-      <c r="I75" s="245" t="s">
+      <c r="I75" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="246"/>
-      <c r="K75" s="247">
+      <c r="J75" s="264"/>
+      <c r="K75" s="265">
         <f>K71+K73</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L75" s="247"/>
+      <c r="L75" s="265"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="152"/>
@@ -9389,18 +9389,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9411,6 +9399,18 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="M69:N69"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.33" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9424,10 +9424,10 @@
   <sheetPr>
     <tabColor rgb="FF99FF33"/>
   </sheetPr>
-  <dimension ref="A1:U97"/>
+  <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E39" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9453,31 +9453,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="262"/>
-      <c r="C1" s="264" t="s">
+      <c r="B1" s="250"/>
+      <c r="C1" s="252" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="263"/>
+      <c r="B2" s="251"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="279" t="s">
+      <c r="F2" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -9488,21 +9488,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="267"/>
+      <c r="B3" s="254" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="255"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="268" t="s">
+      <c r="H3" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="268"/>
+      <c r="I3" s="256"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="241" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9515,14 +9515,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="244"/>
+      <c r="H4" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="246"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -9532,11 +9532,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="277" t="s">
+      <c r="P4" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="278"/>
-      <c r="R4" s="272"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="242"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9579,7 +9579,7 @@
         <v>10293</v>
       </c>
       <c r="Q5" s="34">
-        <f t="shared" ref="Q5:Q62" si="0">P5-F5</f>
+        <f t="shared" ref="Q5:Q55" si="0">P5-F5</f>
         <v>0</v>
       </c>
       <c r="R5" s="48">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="33">
-        <f t="shared" ref="P8:P63" si="1">N8+M8+L8+I8+C8</f>
+        <f t="shared" ref="P8:P56" si="1">N8+M8+L8+I8+C8</f>
         <v>4136</v>
       </c>
       <c r="Q8" s="34">
@@ -11798,655 +11798,426 @@
       <c r="R54" s="202"/>
       <c r="S54" s="240"/>
     </row>
-    <row r="55" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20"/>
-      <c r="B55" s="204"/>
-      <c r="C55" s="201"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="79"/>
       <c r="E55" s="24"/>
       <c r="F55" s="89"/>
-      <c r="G55" s="205"/>
+      <c r="G55" s="26"/>
       <c r="H55" s="27"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="216"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="30">
+      <c r="I55" s="28">
+        <v>0</v>
+      </c>
+      <c r="J55" s="72"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="94">
         <v>0</v>
       </c>
       <c r="N55" s="31">
         <v>0</v>
       </c>
       <c r="O55" s="32"/>
-      <c r="P55" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="149">
+      <c r="P55" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R55" s="202"/>
+      <c r="R55" s="13">
+        <v>0</v>
+      </c>
       <c r="S55" s="240"/>
     </row>
-    <row r="56" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="20"/>
-      <c r="B56" s="204"/>
-      <c r="C56" s="201"/>
-      <c r="D56" s="79"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="97"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="205"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="26"/>
       <c r="H56" s="27"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="216"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="30">
-        <v>0</v>
-      </c>
-      <c r="N56" s="31">
-        <v>0</v>
-      </c>
-      <c r="O56" s="32"/>
-      <c r="P56" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="149">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="202"/>
-      <c r="S56" s="240"/>
-    </row>
-    <row r="57" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="20"/>
-      <c r="B57" s="204"/>
-      <c r="C57" s="201"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="205"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="216"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="30">
-        <v>0</v>
-      </c>
-      <c r="N57" s="31">
-        <v>0</v>
-      </c>
-      <c r="O57" s="32"/>
-      <c r="P57" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="149">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="202"/>
-      <c r="S57" s="240"/>
-    </row>
-    <row r="58" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="20"/>
-      <c r="B58" s="204"/>
-      <c r="C58" s="201"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="205"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="216"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="30">
-        <v>0</v>
-      </c>
-      <c r="N58" s="31">
-        <v>0</v>
-      </c>
-      <c r="O58" s="32"/>
-      <c r="P58" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="149">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R58" s="202"/>
-      <c r="S58" s="240"/>
-    </row>
-    <row r="59" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="20"/>
-      <c r="B59" s="204"/>
-      <c r="C59" s="201"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="205"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="216"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="30">
-        <v>0</v>
-      </c>
-      <c r="N59" s="31">
-        <v>0</v>
-      </c>
-      <c r="O59" s="32"/>
-      <c r="P59" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="149">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R59" s="202"/>
-      <c r="S59" s="240"/>
-    </row>
-    <row r="60" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="20"/>
-      <c r="B60" s="204"/>
-      <c r="C60" s="201"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="205"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="216"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="30">
-        <v>0</v>
-      </c>
-      <c r="N60" s="31">
-        <v>0</v>
-      </c>
-      <c r="O60" s="32"/>
-      <c r="P60" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="149">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R60" s="202"/>
-      <c r="S60" s="240"/>
-    </row>
-    <row r="61" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="74"/>
-      <c r="M61" s="30">
-        <v>0</v>
-      </c>
-      <c r="N61" s="31">
-        <v>0</v>
-      </c>
-      <c r="O61" s="32"/>
-      <c r="P61" s="102">
-        <f t="shared" ref="P61" si="2">N61+M61+L61+I61+C61</f>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="149">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R61" s="202"/>
-      <c r="S61" s="240"/>
-    </row>
-    <row r="62" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="28">
-        <v>0</v>
-      </c>
-      <c r="J62" s="72"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="74"/>
-      <c r="M62" s="94">
-        <v>0</v>
-      </c>
-      <c r="N62" s="31">
-        <v>0</v>
-      </c>
-      <c r="O62" s="32"/>
-      <c r="P62" s="96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R62" s="13">
-        <v>0</v>
-      </c>
-      <c r="S62" s="240"/>
-    </row>
-    <row r="63" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="28">
-        <v>0</v>
-      </c>
-      <c r="J63" s="72"/>
-      <c r="K63" s="99"/>
-      <c r="L63" s="74"/>
-      <c r="M63" s="269">
+      <c r="I56" s="28">
+        <v>0</v>
+      </c>
+      <c r="J56" s="72"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="257">
         <f>SUM(M5:M48)</f>
         <v>41580</v>
       </c>
-      <c r="N63" s="248">
+      <c r="N56" s="266">
         <f>SUM(N5:N48)</f>
         <v>50201</v>
       </c>
-      <c r="P63" s="100">
+      <c r="P56" s="100">
         <f t="shared" si="1"/>
         <v>91781</v>
       </c>
-      <c r="Q63" s="101">
+      <c r="Q56" s="101">
         <f>SUM(Q5:Q48)</f>
         <v>158</v>
       </c>
-      <c r="R63" s="101">
+      <c r="R56" s="101">
         <f>SUM(R5:R48)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="28">
-        <v>0</v>
-      </c>
-      <c r="J64" s="72"/>
-      <c r="K64" s="104"/>
-      <c r="L64" s="74"/>
-      <c r="M64" s="270"/>
-      <c r="N64" s="249"/>
-      <c r="P64" s="96"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="20"/>
-      <c r="B65" s="105"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="108"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="110"/>
-      <c r="H65" s="111"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="112"/>
-      <c r="L65" s="80"/>
-      <c r="M65" s="113"/>
-      <c r="N65" s="114"/>
-      <c r="P65" s="96"/>
-      <c r="Q65" s="9"/>
-    </row>
-    <row r="66" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="105"/>
-      <c r="C66" s="22">
-        <v>0</v>
-      </c>
-      <c r="D66" s="115"/>
-      <c r="E66" s="116"/>
-      <c r="F66" s="106"/>
-      <c r="H66" s="117"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="118"/>
-      <c r="K66" s="119"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="120"/>
-      <c r="N66" s="31"/>
-      <c r="P66" s="96"/>
-      <c r="Q66" s="9"/>
-    </row>
-    <row r="67" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="121" t="s">
+    <row r="57" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="28">
+        <v>0</v>
+      </c>
+      <c r="J57" s="72"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="258"/>
+      <c r="N57" s="267"/>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="20"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="22">
+        <v>0</v>
+      </c>
+      <c r="D58" s="115"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="106"/>
+      <c r="H58" s="117"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="119"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="120"/>
+      <c r="N58" s="31"/>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="9"/>
+    </row>
+    <row r="59" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="122">
-        <f>SUM(C5:C66)</f>
+      <c r="C59" s="122">
+        <f>SUM(C5:C58)</f>
         <v>141358.31</v>
       </c>
-      <c r="D67" s="219"/>
-      <c r="E67" s="124" t="s">
+      <c r="D59" s="219"/>
+      <c r="E59" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="125">
-        <f>SUM(F5:F66)</f>
+      <c r="F59" s="125">
+        <f>SUM(F5:F58)</f>
         <v>216239</v>
       </c>
-      <c r="G67" s="123"/>
-      <c r="H67" s="126" t="s">
+      <c r="G59" s="123"/>
+      <c r="H59" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="I67" s="127">
-        <f>SUM(I5:I66)</f>
+      <c r="I59" s="127">
+        <f>SUM(I5:I58)</f>
         <v>4024</v>
       </c>
-      <c r="J67" s="128"/>
-      <c r="K67" s="129" t="s">
+      <c r="J59" s="128"/>
+      <c r="K59" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="L67" s="130">
-        <f>SUM(L5:L66)</f>
+      <c r="L59" s="130">
+        <f>SUM(L5:L58)</f>
         <v>699.56</v>
       </c>
-      <c r="M67" s="131"/>
-      <c r="N67" s="131"/>
-      <c r="P67" s="96"/>
-      <c r="Q67" s="9"/>
-    </row>
-    <row r="68" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="4" t="s">
+      <c r="M59" s="131"/>
+      <c r="N59" s="131"/>
+      <c r="P59" s="96"/>
+      <c r="Q59" s="9"/>
+    </row>
+    <row r="60" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P68" s="96"/>
-      <c r="Q68" s="9"/>
-    </row>
-    <row r="69" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="133"/>
-      <c r="B69" s="134"/>
-      <c r="C69" s="1"/>
-      <c r="H69" s="250" t="s">
+      <c r="P60" s="96"/>
+      <c r="Q60" s="9"/>
+    </row>
+    <row r="61" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="133"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="1"/>
+      <c r="H61" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="251"/>
-      <c r="J69" s="135"/>
-      <c r="K69" s="252">
-        <f>I67+L67</f>
+      <c r="I61" s="269"/>
+      <c r="J61" s="135"/>
+      <c r="K61" s="270">
+        <f>I59+L59</f>
         <v>4723.5599999999995</v>
       </c>
-      <c r="L69" s="253"/>
-      <c r="M69" s="254">
-        <f>N63+M63</f>
+      <c r="L61" s="271"/>
+      <c r="M61" s="272">
+        <f>N56+M56</f>
         <v>91781</v>
       </c>
-      <c r="N69" s="255"/>
-      <c r="P69" s="96"/>
-      <c r="Q69" s="9"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="261" t="s">
+      <c r="N61" s="273"/>
+      <c r="P61" s="96"/>
+      <c r="Q61" s="9"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D62" s="279" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="261"/>
-      <c r="F70" s="136">
-        <f>F67-K69-C67</f>
+      <c r="E62" s="279"/>
+      <c r="F62" s="136">
+        <f>F59-K61-C59</f>
         <v>70157.13</v>
       </c>
-      <c r="I70" s="137"/>
-      <c r="J70" s="138"/>
-      <c r="P70" s="96"/>
-      <c r="Q70" s="9"/>
-    </row>
-    <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="256"/>
-      <c r="E71" s="256"/>
-      <c r="F71" s="131">
-        <v>0</v>
-      </c>
-      <c r="I71" s="257" t="s">
+      <c r="I62" s="137"/>
+      <c r="J62" s="138"/>
+      <c r="P62" s="96"/>
+      <c r="Q62" s="9"/>
+    </row>
+    <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D63" s="274"/>
+      <c r="E63" s="274"/>
+      <c r="F63" s="131">
+        <v>0</v>
+      </c>
+      <c r="I63" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="258"/>
-      <c r="K71" s="259">
-        <f>F73+F74+F75</f>
+      <c r="J63" s="276"/>
+      <c r="K63" s="277">
+        <f>F65+F66+F67</f>
         <v>70157.13</v>
       </c>
-      <c r="L71" s="260"/>
-      <c r="P71" s="96"/>
-      <c r="Q71" s="9"/>
-    </row>
-    <row r="72" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D72" s="220"/>
-      <c r="E72" s="140"/>
-      <c r="F72" s="141">
-        <v>0</v>
-      </c>
-      <c r="I72" s="142"/>
-      <c r="J72" s="143"/>
-      <c r="K72" s="144"/>
-      <c r="L72" s="145"/>
-    </row>
-    <row r="73" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="5" t="s">
+      <c r="L63" s="278"/>
+      <c r="P63" s="96"/>
+      <c r="Q63" s="9"/>
+    </row>
+    <row r="64" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D64" s="220"/>
+      <c r="E64" s="140"/>
+      <c r="F64" s="141">
+        <v>0</v>
+      </c>
+      <c r="I64" s="142"/>
+      <c r="J64" s="143"/>
+      <c r="K64" s="144"/>
+      <c r="L64" s="145"/>
+    </row>
+    <row r="65" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="133" t="s">
+      <c r="E65" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="131">
-        <f>SUM(F70:F72)</f>
+      <c r="F65" s="131">
+        <f>SUM(F62:F64)</f>
         <v>70157.13</v>
       </c>
-      <c r="H73" s="20"/>
-      <c r="I73" s="146" t="s">
+      <c r="H65" s="20"/>
+      <c r="I65" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="J73" s="147"/>
-      <c r="K73" s="241">
+      <c r="J65" s="147"/>
+      <c r="K65" s="259">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L73" s="242"/>
-    </row>
-    <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="221" t="s">
+      <c r="L65" s="260"/>
+    </row>
+    <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="133"/>
-      <c r="F74" s="149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C75" s="150"/>
-      <c r="D75" s="243" t="s">
+      <c r="E66" s="133"/>
+      <c r="F66" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="150"/>
+      <c r="D67" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="244"/>
-      <c r="F75" s="151">
-        <v>0</v>
-      </c>
-      <c r="I75" s="245" t="s">
+      <c r="E67" s="262"/>
+      <c r="F67" s="151">
+        <v>0</v>
+      </c>
+      <c r="I67" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="246"/>
-      <c r="K75" s="247">
-        <f>K71+K73</f>
+      <c r="J67" s="264"/>
+      <c r="K67" s="265">
+        <f>K63+K65</f>
         <v>70157.13</v>
       </c>
-      <c r="L75" s="247"/>
-    </row>
-    <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C76" s="152"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="154"/>
-      <c r="F76" s="155"/>
-      <c r="J76" s="156"/>
-    </row>
-    <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="157"/>
-      <c r="J77" s="157"/>
-      <c r="K77" s="158"/>
-      <c r="L77" s="158"/>
-    </row>
-    <row r="78" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="159"/>
-      <c r="C78" s="160"/>
-      <c r="D78" s="222"/>
-      <c r="E78" s="96"/>
-      <c r="I78" s="157"/>
-      <c r="J78" s="157"/>
-      <c r="K78" s="158"/>
-      <c r="L78" s="158"/>
-      <c r="M78" s="162"/>
-      <c r="N78" s="133"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B79" s="159"/>
-      <c r="C79" s="163"/>
-      <c r="E79" s="96"/>
-      <c r="M79" s="162"/>
-      <c r="N79" s="133"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B80" s="159"/>
-      <c r="C80" s="163"/>
-      <c r="E80" s="96"/>
-      <c r="F80" s="164"/>
-      <c r="L80" s="165"/>
+      <c r="L67" s="265"/>
+    </row>
+    <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C68" s="152"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="155"/>
+      <c r="J68" s="156"/>
+    </row>
+    <row r="69" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="157"/>
+      <c r="J69" s="157"/>
+      <c r="K69" s="158"/>
+      <c r="L69" s="158"/>
+    </row>
+    <row r="70" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="159"/>
+      <c r="C70" s="160"/>
+      <c r="D70" s="222"/>
+      <c r="E70" s="96"/>
+      <c r="I70" s="157"/>
+      <c r="J70" s="157"/>
+      <c r="K70" s="158"/>
+      <c r="L70" s="158"/>
+      <c r="M70" s="162"/>
+      <c r="N70" s="133"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="159"/>
+      <c r="C71" s="163"/>
+      <c r="E71" s="96"/>
+      <c r="M71" s="162"/>
+      <c r="N71" s="133"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="159"/>
+      <c r="C72" s="163"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="164"/>
+      <c r="L72" s="165"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="159"/>
+      <c r="C73" s="163"/>
+      <c r="E73" s="96"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="159"/>
+      <c r="C74" s="163"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="166"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E75" s="167"/>
+      <c r="F75" s="96"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E76" s="167"/>
+      <c r="F76" s="96"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E77" s="167"/>
+      <c r="F77" s="96"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E78" s="167"/>
+      <c r="F78" s="96"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E79" s="167"/>
+      <c r="F79" s="96"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E80" s="167"/>
+      <c r="F80" s="96"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="159"/>
-      <c r="C81" s="163"/>
-      <c r="E81" s="96"/>
+    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E81" s="167"/>
+      <c r="F81" s="96"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="159"/>
-      <c r="C82" s="163"/>
-      <c r="E82" s="96"/>
-      <c r="F82" s="166"/>
+    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E82" s="167"/>
+      <c r="F82" s="96"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E83" s="167"/>
       <c r="F83" s="96"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E84" s="167"/>
       <c r="F84" s="96"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E85" s="167"/>
       <c r="F85" s="96"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E86" s="167"/>
       <c r="F86" s="96"/>
-      <c r="M86" s="1"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E87" s="167"/>
-      <c r="F87" s="96"/>
-      <c r="M87" s="1"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E88" s="167"/>
-      <c r="F88" s="96"/>
-      <c r="M88" s="1"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E89" s="167"/>
-      <c r="F89" s="96"/>
-      <c r="M89" s="1"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E90" s="167"/>
-      <c r="F90" s="96"/>
-      <c r="M90" s="1"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E91" s="167"/>
-      <c r="F91" s="96"/>
-      <c r="M91" s="1"/>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E92" s="167"/>
-      <c r="F92" s="96"/>
-      <c r="M92" s="1"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E93" s="167"/>
-      <c r="F93" s="96"/>
-      <c r="M93" s="1"/>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E94" s="167"/>
-      <c r="F94" s="96"/>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F95" s="166"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F96" s="166"/>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F97" s="166"/>
+    </row>
+    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F87" s="166"/>
+    </row>
+    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F88" s="166"/>
+    </row>
+    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F89" s="166"/>
     </row>
   </sheetData>
   <sortState ref="B38:D56">
     <sortCondition ref="B38:B56"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
